--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B243E474-24F6-48EB-A605-162DCEE7EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAFF432-3E3F-48FB-9CF3-52D4287DD879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="18" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <sheet name="ace svm%20" sheetId="14" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
     <sheet name="Sheet3" sheetId="23" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId19"/>
-    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId20"/>
-    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId21"/>
-    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId22"/>
+    <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
+    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId21"/>
+    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId22"/>
+    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="89">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -490,6 +490,21 @@
   <si>
     <t>C:\Users\shukl\Documents\GitHub\CancerAceFiltering\ace_dist_l1pca_dist_clustering.mlx</t>
   </si>
+  <si>
+    <t>Curated  Data</t>
+  </si>
+  <si>
+    <t>Raw  Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Probability of False Alarm</t>
+  </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +606,20 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +722,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1066,11 +1099,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1326,6 +1385,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,12 +1409,6 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,6 +1418,83 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23955,26 +24091,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="120"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="120"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="116"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="116"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -23992,7 +24128,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="117" t="b">
+      <c r="B5" s="119" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24004,10 +24140,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="117" t="b">
+      <c r="H5" s="119" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24019,12 +24155,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="115" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24034,8 +24170,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="H6" s="118"/>
+      <c r="F6" s="116"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24045,7 +24181,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24265,14 +24401,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -24283,7 +24419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF17528-73F7-428C-8897-4342D29A6053}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -24305,26 +24441,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="120"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="120"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="116"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="116"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24342,7 +24478,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="117" t="b">
+      <c r="B5" s="119" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24356,10 +24492,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="117" t="b">
+      <c r="H5" s="119" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24371,12 +24507,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="115" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24388,8 +24524,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="H6" s="118"/>
+      <c r="F6" s="116"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24399,7 +24535,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24633,6 +24769,3722 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CD87D-F648-4BF3-845B-D067AC887F9E}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="B1" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="G1" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="H3" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="131"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="136">
+        <v>127.3</v>
+      </c>
+      <c r="D5" s="137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="136">
+        <v>127.2</v>
+      </c>
+      <c r="I5" s="137">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="138"/>
+      <c r="B6" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="140">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="141">
+        <v>71.2</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="140">
+        <v>3.2</v>
+      </c>
+      <c r="I6" s="141">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="N8" s="98"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144">
+        <v>0.967391</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="I9" s="147"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="148" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="149">
+        <v>3.1202000000000001E-2</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="150">
+        <v>3.1962999999999998E-2</v>
+      </c>
+      <c r="I10" s="151"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="I12" s="152"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="154">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="154">
+        <v>3.6097999999999998E-2</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="K13">
+        <f>(H13-C13)/H13 *100</f>
+        <v>12.164108814892789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="152"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA771D-7816-4988-95C5-3A4DB8A0A98F}">
+  <dimension ref="A1:U100"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>SUM(C3,C13,C23,C43,C53,C63,C73,C83,C93)/10</f>
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:U10" si="0">SUM(D3,D13,D23,D43,D53,D63,D73,D83,D93)/10</f>
+        <v>5.121999999999999</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>4.5849999999999991</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>4.7320000000000002</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>5.3169999999999993</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>4.6829999999999998</v>
+      </c>
+      <c r="U3">
+        <f>SUM(K3,K13,K23,K43,K53,K63,K73,K83,K93)/10</f>
+        <v>4.048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="1">SUM(C4,C14,C24,C44,C54,C64,C74,C84,C94)/10</f>
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>3.95</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>4.1949999999999994</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>5.169999999999999</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>4.5860000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.1450000000000005</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4.4879999999999995</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>4.8779999999999992</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>6.1449999999999996</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4.6339999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5.121999999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>4.8279999999999985</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>5.1209999999999996</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>5.2189999999999994</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>4.9269999999999987</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>5.4619999999999997</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>6.1459999999999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>6.2910000000000004</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>5.4619999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>5.17</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>6.2429999999999994</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.952</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>5.952</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>6.0969999999999995</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>6.5849999999999991</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>6.9259999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="L9" s="5">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>7.2669999999999986</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>8.2420000000000009</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>7.4129999999999994</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8.1949999999999985</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>9.5590000000000011</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>8.5350000000000001</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>9.4619999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>34.15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="G10" s="4">
+        <v>18.54</v>
+      </c>
+      <c r="H10" s="4">
+        <v>22.44</v>
+      </c>
+      <c r="I10" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="L10" s="5">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>25.461999999999996</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>21.413999999999998</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>19.559999999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>23.757999999999999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>20.829000000000004</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>22.488000000000003</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>24.439</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>27.852999999999998</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>22.535999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K14" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="N14">
+        <f>7*8/10</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="J17" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J18" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="E19" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="G19" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>13.66</v>
+      </c>
+      <c r="J19" s="4">
+        <v>13.66</v>
+      </c>
+      <c r="K19" s="4">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30.73</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="E20" s="4">
+        <v>28.29</v>
+      </c>
+      <c r="F20" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="G20" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="H20" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="I20" s="4">
+        <v>40</v>
+      </c>
+      <c r="J20" s="4">
+        <v>70.73</v>
+      </c>
+      <c r="K20" s="4">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="K23" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H28" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J28" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K28" s="4">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="H29" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K29" s="4">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="E30" s="4">
+        <v>19.02</v>
+      </c>
+      <c r="F30" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="H30" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="I30" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="K30" s="4">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H33" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I33" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="K33" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K34" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I35" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J35" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I36" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D37" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F37" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H37" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I37" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J37" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K37" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J38" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K38" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D39" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="E39" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G39" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="H39" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="I39" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="J39" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="K39" s="4">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>24.39</v>
+      </c>
+      <c r="D40" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E40" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="F40" s="4">
+        <v>32.68</v>
+      </c>
+      <c r="G40" s="4">
+        <v>29.27</v>
+      </c>
+      <c r="H40" s="4">
+        <v>39.51</v>
+      </c>
+      <c r="I40" s="4">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="J40" s="4">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="K40" s="4">
+        <v>42.93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <v>8</v>
+      </c>
+      <c r="K42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J43" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H44" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I45" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J45" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K45" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E46" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="I46" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="J46" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K46" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H47" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I47" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J47" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K47" s="4">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="G48" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="H48" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I48" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J48" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K48" s="4">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="F49" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G49" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="H49" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I49" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J49" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K49" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39.51</v>
+      </c>
+      <c r="D50" s="4">
+        <v>35.61</v>
+      </c>
+      <c r="E50" s="4">
+        <v>41.95</v>
+      </c>
+      <c r="F50" s="4">
+        <v>35.61</v>
+      </c>
+      <c r="G50" s="4">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="H50" s="4">
+        <v>29.76</v>
+      </c>
+      <c r="I50" s="4">
+        <v>24.39</v>
+      </c>
+      <c r="J50" s="4">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="K50" s="4">
+        <v>41.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="H52" s="2">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2">
+        <v>7</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8</v>
+      </c>
+      <c r="K52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H53" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I53" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K53" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E54" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G54" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H54" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I54" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J54" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K54" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E55" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I55" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J55" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="K55" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J56" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K56" s="4">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H57" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J57" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="K57" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G58" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="H58" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="I58" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J58" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K58" s="4">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D59" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E59" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F59" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="G59" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="H59" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="I59" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J59" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K59" s="4">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D60" s="4">
+        <v>18.05</v>
+      </c>
+      <c r="E60" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="F60" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="G60" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="H60" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="I60" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="J60" s="4">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="K60" s="4">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7</v>
+      </c>
+      <c r="J62" s="2">
+        <v>8</v>
+      </c>
+      <c r="K62" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G63" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J63" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K63" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F64" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H64" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="I64" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K64" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D65" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="F65" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H65" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="I65" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J65" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K65" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="3">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E66" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G66" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="H66" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I66" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J66" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K66" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D67" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="F67" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G67" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H67" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I67" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="J67" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="K67" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="F68" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="G68" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="H68" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="I68" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="J68" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K68" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E69" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="F69" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="G69" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="H69" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I69" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J69" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="K69" s="4">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="D70" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="E70" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="F70" s="4">
+        <v>20.98</v>
+      </c>
+      <c r="G70" s="4">
+        <v>22.44</v>
+      </c>
+      <c r="H70" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="I70" s="4">
+        <v>30.24</v>
+      </c>
+      <c r="J70" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="K70" s="4">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2">
+        <v>6</v>
+      </c>
+      <c r="I72" s="2">
+        <v>7</v>
+      </c>
+      <c r="J72" s="2">
+        <v>8</v>
+      </c>
+      <c r="K72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D73" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F73" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G73" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="H73" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I73" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J73" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K73" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D74" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E74" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F74" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G74" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="H74" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I74" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="J74" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="K74" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D75" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F75" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="G75" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I75" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J75" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="K75" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E76" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F76" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G76" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="H76" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I76" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J76" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K76" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="3">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G77" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H77" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I77" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J77" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K77" s="4">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>30</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D78" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E78" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="F78" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H78" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I78" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J78" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K78" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D79" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="E79" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F79" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="G79" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="H79" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="I79" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="J79" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="K79" s="4">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="3">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
+        <v>50</v>
+      </c>
+      <c r="C80" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="D80" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="E80" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="F80" s="4">
+        <v>20.98</v>
+      </c>
+      <c r="G80" s="4">
+        <v>19.02</v>
+      </c>
+      <c r="H80" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="I80" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J80" s="4">
+        <v>20.98</v>
+      </c>
+      <c r="K80" s="4">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+      <c r="H82" s="2">
+        <v>6</v>
+      </c>
+      <c r="I82" s="2">
+        <v>7</v>
+      </c>
+      <c r="J82" s="2">
+        <v>8</v>
+      </c>
+      <c r="K82" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D83" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="H83" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I83" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="J83" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K83" s="4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D84" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="H84" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I84" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="J84" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K84" s="4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="H85" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="I85" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="J85" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K85" s="4">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F86" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H86" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I86" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="J86" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="K86" s="4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D87" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E87" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F87" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G87" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H87" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="I87" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J87" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K87" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4">
+        <v>30</v>
+      </c>
+      <c r="C88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="D88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="F88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="G88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="H88" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="J88" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="K88" s="4">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="3">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4">
+        <v>40</v>
+      </c>
+      <c r="C89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F89" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G89" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="H89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J89" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="K89" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="3">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="D90" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="E90" s="4">
+        <v>20.49</v>
+      </c>
+      <c r="F90" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G90" s="4">
+        <v>18.05</v>
+      </c>
+      <c r="H90" s="4">
+        <v>18.05</v>
+      </c>
+      <c r="I90" s="4">
+        <v>22.93</v>
+      </c>
+      <c r="J90" s="4">
+        <v>22.44</v>
+      </c>
+      <c r="K90" s="4">
+        <v>22.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+      <c r="H92" s="2">
+        <v>6</v>
+      </c>
+      <c r="I92" s="2">
+        <v>7</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8</v>
+      </c>
+      <c r="K92" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D93" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E93" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F93" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G93" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="H93" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="I93" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="J93" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="K93" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="D94" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E94" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="F94" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="I94" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J94" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K94" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D95" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E95" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="F95" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G95" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H95" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="I95" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J95" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="K95" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="D96" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F96" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G96" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="H96" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="I96" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="J96" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K96" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D97" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E97" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F97" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H97" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="I97" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J97" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K97" s="4">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="D98" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="E98" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F98" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G98" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I98" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J98" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K98" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="D99" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F99" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G99" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="H99" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="I99" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J99" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="K99" s="4">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="4">
+        <v>50</v>
+      </c>
+      <c r="C100" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="D100" s="4">
+        <v>20</v>
+      </c>
+      <c r="E100" s="4">
+        <v>20</v>
+      </c>
+      <c r="F100" s="4">
+        <v>22.93</v>
+      </c>
+      <c r="G100" s="4">
+        <v>26.34</v>
+      </c>
+      <c r="H100" s="4">
+        <v>25.37</v>
+      </c>
+      <c r="I100" s="4">
+        <v>20.49</v>
+      </c>
+      <c r="J100" s="4">
+        <v>19.02</v>
+      </c>
+      <c r="K100" s="4">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="135" priority="2" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="134" priority="1" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3785AFE-4517-4239-AB9A-9F7F55BC8000}">
   <dimension ref="B1:F20"/>
   <sheetViews>
@@ -24744,3552 +28596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA771D-7816-4988-95C5-3A4DB8A0A98F}">
-  <dimension ref="A1:U100"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>3</v>
-      </c>
-      <c r="P2" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>6</v>
-      </c>
-      <c r="S2" s="6">
-        <v>7</v>
-      </c>
-      <c r="T2" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J3" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>SUM(C3,C13,C23,C43,C53,C63,C73,C83,C93)/10</f>
-        <v>5.0730000000000004</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:U10" si="0">SUM(D3,D13,D23,D43,D53,D63,D73,D83,D93)/10</f>
-        <v>5.121999999999999</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>4.5849999999999991</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>4.7309999999999999</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>4.7320000000000002</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>4.7309999999999999</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>5.3169999999999993</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>4.6829999999999998</v>
-      </c>
-      <c r="U3">
-        <f>SUM(K3,K13,K23,K43,K53,K63,K73,K83,K93)/10</f>
-        <v>4.048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K4" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M10" si="1">SUM(C4,C14,C24,C44,C54,C64,C74,C84,C94)/10</f>
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>4.5830000000000002</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>4.8280000000000003</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>4.1949999999999994</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>5.4139999999999997</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>5.169999999999999</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>4.5860000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I5" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>5.0720000000000001</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>4.2919999999999998</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>4.1450000000000005</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>4.4879999999999995</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>4.8779999999999992</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>6.1449999999999996</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>4.6339999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="J6" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="L6" s="5">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>5.121999999999999</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>5.1210000000000004</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>5.5600000000000005</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>4.8279999999999985</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>5.0720000000000001</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>4.5359999999999996</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>5.1209999999999996</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I7" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="K7" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>4.8769999999999998</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>5.1719999999999997</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>5.2189999999999994</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>4.9269999999999987</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>5.3650000000000002</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>5.4619999999999997</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>6.1459999999999999</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>6.2910000000000004</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>5.4619999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J8" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="L8" s="5">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>5.17</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>6.2429999999999994</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>5.7080000000000002</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>5.952</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>5.952</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>6.0969999999999995</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>6.8769999999999998</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>6.5849999999999991</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>6.9259999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F9" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="G9" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="I9" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="L9" s="5">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>7.2669999999999986</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>8.2420000000000009</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>7.4129999999999994</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>8.1949999999999985</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>9.5590000000000011</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>8.5350000000000001</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>8.4870000000000001</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>9.4619999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>34.15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="E10" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="F10" s="4">
-        <v>24.88</v>
-      </c>
-      <c r="G10" s="4">
-        <v>18.54</v>
-      </c>
-      <c r="H10" s="4">
-        <v>22.44</v>
-      </c>
-      <c r="I10" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="J10" s="4">
-        <v>23.41</v>
-      </c>
-      <c r="K10" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="L10" s="5">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>25.461999999999996</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>21.413999999999998</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>19.559999999999999</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>23.757999999999999</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>20.829000000000004</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>22.488000000000003</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>24.439</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>27.852999999999998</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>22.535999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>8</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F13" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="H13" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="I13" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J13" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="K13" s="4">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="G14" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="H14" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I14" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J14" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K14" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="N14">
-        <f>7*8/10</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E15" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G15" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J15" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="K15" s="4">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G16" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="H16" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="I16" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="J16" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K16" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="E17" s="4">
-        <v>11.22</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="G17" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="H17" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="I17" s="4">
-        <v>11.71</v>
-      </c>
-      <c r="J17" s="4">
-        <v>11.22</v>
-      </c>
-      <c r="K17" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D18" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F18" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="G18" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I18" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J18" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K18" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="D19" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="E19" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="F19" s="4">
-        <v>14.15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="H19" s="4">
-        <v>14.15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>13.66</v>
-      </c>
-      <c r="J19" s="4">
-        <v>13.66</v>
-      </c>
-      <c r="K19" s="4">
-        <v>14.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>30.73</v>
-      </c>
-      <c r="D20" s="4">
-        <v>24.88</v>
-      </c>
-      <c r="E20" s="4">
-        <v>28.29</v>
-      </c>
-      <c r="F20" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="G20" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="H20" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="I20" s="4">
-        <v>40</v>
-      </c>
-      <c r="J20" s="4">
-        <v>70.73</v>
-      </c>
-      <c r="K20" s="4">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
-      <c r="K22" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="J23" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="K23" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F24" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H24" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J24" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="G25" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H25" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="I25" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="J25" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="K25" s="4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I26" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="K26" s="4">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G27" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="H27" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="J27" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="K27" s="4">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F28" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G28" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H28" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="I28" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J28" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K28" s="4">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D29" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G29" s="4">
-        <v>11.22</v>
-      </c>
-      <c r="H29" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="I29" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J29" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K29" s="4">
-        <v>14.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4">
-        <v>43.9</v>
-      </c>
-      <c r="D30" s="4">
-        <v>43.9</v>
-      </c>
-      <c r="E30" s="4">
-        <v>19.02</v>
-      </c>
-      <c r="F30" s="4">
-        <v>52.2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="H30" s="4">
-        <v>43.9</v>
-      </c>
-      <c r="I30" s="4">
-        <v>56.1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="K30" s="4">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-      <c r="H32" s="2">
-        <v>6</v>
-      </c>
-      <c r="I32" s="2">
-        <v>7</v>
-      </c>
-      <c r="J32" s="2">
-        <v>8</v>
-      </c>
-      <c r="K32" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G33" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I33" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J33" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="K33" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E34" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F34" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H34" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I34" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J34" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K34" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G35" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I35" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J35" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="K35" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D36" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E36" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H36" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I36" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="J36" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="K36" s="4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D37" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F37" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="G37" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H37" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I37" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J37" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="K37" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G38" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H38" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I38" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J38" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="K38" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D39" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="E39" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F39" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="G39" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="H39" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="I39" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="J39" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="K39" s="4">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
-        <v>24.39</v>
-      </c>
-      <c r="D40" s="4">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E40" s="4">
-        <v>23.41</v>
-      </c>
-      <c r="F40" s="4">
-        <v>32.68</v>
-      </c>
-      <c r="G40" s="4">
-        <v>29.27</v>
-      </c>
-      <c r="H40" s="4">
-        <v>39.51</v>
-      </c>
-      <c r="I40" s="4">
-        <v>35.119999999999997</v>
-      </c>
-      <c r="J40" s="4">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="K40" s="4">
-        <v>42.93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2">
-        <v>8</v>
-      </c>
-      <c r="K42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="F43" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G43" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H43" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I43" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J43" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K43" s="4">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G44" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H44" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I44" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="J44" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="K44" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="F45" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G45" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H45" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I45" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J45" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K45" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E46" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="F46" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="G46" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="I46" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="J46" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K46" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4">
-        <v>20</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E47" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F47" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G47" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H47" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I47" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J47" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K47" s="4">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D48" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F48" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="G48" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="H48" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I48" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J48" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K48" s="4">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D49" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="F49" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G49" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="H49" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I49" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J49" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K49" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>39.51</v>
-      </c>
-      <c r="D50" s="4">
-        <v>35.61</v>
-      </c>
-      <c r="E50" s="4">
-        <v>41.95</v>
-      </c>
-      <c r="F50" s="4">
-        <v>35.61</v>
-      </c>
-      <c r="G50" s="4">
-        <v>34.630000000000003</v>
-      </c>
-      <c r="H50" s="4">
-        <v>29.76</v>
-      </c>
-      <c r="I50" s="4">
-        <v>24.39</v>
-      </c>
-      <c r="J50" s="4">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="K50" s="4">
-        <v>41.95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4</v>
-      </c>
-      <c r="G52" s="2">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2">
-        <v>6</v>
-      </c>
-      <c r="I52" s="2">
-        <v>7</v>
-      </c>
-      <c r="J52" s="2">
-        <v>8</v>
-      </c>
-      <c r="K52" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D53" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F53" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G53" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H53" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I53" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J53" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K53" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D54" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E54" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F54" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G54" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H54" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I54" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J54" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="K54" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E55" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="G55" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H55" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I55" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J55" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="K55" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D56" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E56" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F56" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G56" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H56" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="I56" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="J56" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="K56" s="4">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="G57" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H57" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I57" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J57" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="K57" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D58" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E58" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="F58" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G58" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="H58" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="I58" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J58" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K58" s="4">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D59" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E59" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F59" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="G59" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="H59" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="I59" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J59" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K59" s="4">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3">
-        <v>7</v>
-      </c>
-      <c r="B60" s="4">
-        <v>50</v>
-      </c>
-      <c r="C60" s="4">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="D60" s="4">
-        <v>18.05</v>
-      </c>
-      <c r="E60" s="4">
-        <v>17.07</v>
-      </c>
-      <c r="F60" s="4">
-        <v>17.07</v>
-      </c>
-      <c r="G60" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="H60" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="I60" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="J60" s="4">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="K60" s="4">
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2">
-        <v>5</v>
-      </c>
-      <c r="H62" s="2">
-        <v>6</v>
-      </c>
-      <c r="I62" s="2">
-        <v>7</v>
-      </c>
-      <c r="J62" s="2">
-        <v>8</v>
-      </c>
-      <c r="K62" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D63" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="E63" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F63" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G63" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="H63" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I63" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J63" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K63" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D64" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E64" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F64" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G64" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H64" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="I64" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="J64" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K64" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D65" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="E65" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="F65" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G65" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H65" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="I65" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J65" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K65" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D66" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E66" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F66" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G66" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="H66" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="I66" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J66" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K66" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="3">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D67" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E67" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="F67" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="G67" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="H67" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I67" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="J67" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="K67" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="3">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
-        <v>30</v>
-      </c>
-      <c r="C68" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D68" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E68" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="F68" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="G68" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="H68" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="I68" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="J68" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K68" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="3">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4">
-        <v>40</v>
-      </c>
-      <c r="C69" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D69" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E69" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="F69" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="G69" s="4">
-        <v>11.22</v>
-      </c>
-      <c r="H69" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="I69" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J69" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="K69" s="4">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="3">
-        <v>7</v>
-      </c>
-      <c r="B70" s="4">
-        <v>50</v>
-      </c>
-      <c r="C70" s="4">
-        <v>23.41</v>
-      </c>
-      <c r="D70" s="4">
-        <v>23.41</v>
-      </c>
-      <c r="E70" s="4">
-        <v>24.88</v>
-      </c>
-      <c r="F70" s="4">
-        <v>20.98</v>
-      </c>
-      <c r="G70" s="4">
-        <v>22.44</v>
-      </c>
-      <c r="H70" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="I70" s="4">
-        <v>30.24</v>
-      </c>
-      <c r="J70" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="K70" s="4">
-        <v>29.27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>4</v>
-      </c>
-      <c r="G72" s="2">
-        <v>5</v>
-      </c>
-      <c r="H72" s="2">
-        <v>6</v>
-      </c>
-      <c r="I72" s="2">
-        <v>7</v>
-      </c>
-      <c r="J72" s="2">
-        <v>8</v>
-      </c>
-      <c r="K72" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D73" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="E73" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F73" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G73" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="H73" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I73" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J73" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K73" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4">
-        <v>2</v>
-      </c>
-      <c r="C74" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D74" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E74" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F74" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G74" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="H74" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I74" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="J74" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="K74" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="3">
-        <v>2</v>
-      </c>
-      <c r="B75" s="4">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D75" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E75" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F75" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="G75" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="H75" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I75" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J75" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="K75" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="D76" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E76" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F76" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="G76" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="H76" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I76" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="J76" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K76" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="3">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4">
-        <v>20</v>
-      </c>
-      <c r="C77" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D77" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E77" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="F77" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G77" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H77" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I77" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J77" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="K77" s="4">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="3">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4">
-        <v>30</v>
-      </c>
-      <c r="C78" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D78" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E78" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="F78" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G78" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H78" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I78" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J78" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="K78" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="3">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4">
-        <v>40</v>
-      </c>
-      <c r="C79" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D79" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="E79" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F79" s="4">
-        <v>11.71</v>
-      </c>
-      <c r="G79" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="H79" s="4">
-        <v>14.15</v>
-      </c>
-      <c r="I79" s="4">
-        <v>14.15</v>
-      </c>
-      <c r="J79" s="4">
-        <v>11.71</v>
-      </c>
-      <c r="K79" s="4">
-        <v>14.63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="3">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4">
-        <v>50</v>
-      </c>
-      <c r="C80" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="D80" s="4">
-        <v>17.07</v>
-      </c>
-      <c r="E80" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="F80" s="4">
-        <v>20.98</v>
-      </c>
-      <c r="G80" s="4">
-        <v>19.02</v>
-      </c>
-      <c r="H80" s="4">
-        <v>23.41</v>
-      </c>
-      <c r="I80" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="J80" s="4">
-        <v>20.98</v>
-      </c>
-      <c r="K80" s="4">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>5</v>
-      </c>
-      <c r="H82" s="2">
-        <v>6</v>
-      </c>
-      <c r="I82" s="2">
-        <v>7</v>
-      </c>
-      <c r="J82" s="2">
-        <v>8</v>
-      </c>
-      <c r="K82" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3">
-        <v>0</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D83" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="F83" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="G83" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="H83" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I83" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="J83" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K83" s="4">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4">
-        <v>2</v>
-      </c>
-      <c r="C84" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="D84" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="G84" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I84" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="J84" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K84" s="4">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="D85" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E85" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="F85" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="G85" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="H85" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="I85" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="J85" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="K85" s="4">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="D86" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="E86" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F86" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G86" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H86" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I86" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="J86" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="K86" s="4">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="3">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4">
-        <v>20</v>
-      </c>
-      <c r="C87" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D87" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="E87" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F87" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G87" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H87" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="J87" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="K87" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="3">
-        <v>5</v>
-      </c>
-      <c r="B88" s="4">
-        <v>30</v>
-      </c>
-      <c r="C88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="D88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="E88" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="F88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="G88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="H88" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="J88" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="K88" s="4">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="4">
-        <v>40</v>
-      </c>
-      <c r="C89" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D89" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E89" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F89" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="G89" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="H89" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="I89" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J89" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="K89" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3">
-        <v>7</v>
-      </c>
-      <c r="B90" s="4">
-        <v>50</v>
-      </c>
-      <c r="C90" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="D90" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="E90" s="4">
-        <v>20.49</v>
-      </c>
-      <c r="F90" s="4">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="G90" s="4">
-        <v>18.05</v>
-      </c>
-      <c r="H90" s="4">
-        <v>18.05</v>
-      </c>
-      <c r="I90" s="4">
-        <v>22.93</v>
-      </c>
-      <c r="J90" s="4">
-        <v>22.44</v>
-      </c>
-      <c r="K90" s="4">
-        <v>22.44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
-      </c>
-      <c r="F92" s="2">
-        <v>4</v>
-      </c>
-      <c r="G92" s="2">
-        <v>5</v>
-      </c>
-      <c r="H92" s="2">
-        <v>6</v>
-      </c>
-      <c r="I92" s="2">
-        <v>7</v>
-      </c>
-      <c r="J92" s="2">
-        <v>8</v>
-      </c>
-      <c r="K92" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D93" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="E93" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="F93" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G93" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="H93" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="I93" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="J93" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="K93" s="4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="3">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2</v>
-      </c>
-      <c r="C94" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="D94" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E94" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="F94" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G94" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H94" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="I94" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="J94" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="K94" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="3">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D95" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="E95" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="F95" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G95" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H95" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="I95" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="J95" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="K95" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="3">
-        <v>3</v>
-      </c>
-      <c r="B96" s="4">
-        <v>10</v>
-      </c>
-      <c r="C96" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="D96" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E96" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F96" s="4">
-        <v>6.34</v>
-      </c>
-      <c r="G96" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="H96" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I96" s="4">
-        <v>6.83</v>
-      </c>
-      <c r="J96" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K96" s="4">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="3">
-        <v>4</v>
-      </c>
-      <c r="B97" s="4">
-        <v>20</v>
-      </c>
-      <c r="C97" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="D97" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="E97" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F97" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G97" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="H97" s="4">
-        <v>7.32</v>
-      </c>
-      <c r="I97" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J97" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="K97" s="4">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4">
-        <v>30</v>
-      </c>
-      <c r="C98" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="D98" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="E98" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F98" s="4">
-        <v>5.37</v>
-      </c>
-      <c r="G98" s="4">
-        <v>9.27</v>
-      </c>
-      <c r="H98" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I98" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J98" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="K98" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="3">
-        <v>6</v>
-      </c>
-      <c r="B99" s="4">
-        <v>40</v>
-      </c>
-      <c r="C99" s="4">
-        <v>9.76</v>
-      </c>
-      <c r="D99" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="E99" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F99" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G99" s="4">
-        <v>11.71</v>
-      </c>
-      <c r="H99" s="4">
-        <v>12.68</v>
-      </c>
-      <c r="I99" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J99" s="4">
-        <v>11.71</v>
-      </c>
-      <c r="K99" s="4">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="3">
-        <v>7</v>
-      </c>
-      <c r="B100" s="4">
-        <v>50</v>
-      </c>
-      <c r="C100" s="4">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="D100" s="4">
-        <v>20</v>
-      </c>
-      <c r="E100" s="4">
-        <v>20</v>
-      </c>
-      <c r="F100" s="4">
-        <v>22.93</v>
-      </c>
-      <c r="G100" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="H100" s="4">
-        <v>25.37</v>
-      </c>
-      <c r="I100" s="4">
-        <v>20.49</v>
-      </c>
-      <c r="J100" s="4">
-        <v>19.02</v>
-      </c>
-      <c r="K100" s="4">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="135" priority="2" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D1BD3-6FA7-4787-B696-04D3642D0AA5}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -28728,7 +29035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3B66D-7BD8-4F2A-9287-C113CF501316}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -29229,7 +29536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA21E-70DE-47C0-9B79-6D95FAF31B83}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAFF432-3E3F-48FB-9CF3-52D4287DD879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9415B-AD52-40E1-91F6-E9D7974D85D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="18" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="Sheet3" sheetId="23" r:id="rId18"/>
     <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
-    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId21"/>
-    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId22"/>
-    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId23"/>
+    <sheet name="knee_l1pca" sheetId="25" r:id="rId21"/>
+    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId22"/>
+    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId23"/>
+    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="89">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -513,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +619,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1343,6 +1355,60 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,12 +1451,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1409,14 +1469,11 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1433,68 +1490,47 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10596,16 +10632,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -11556,17 +11592,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="102" t="s">
+      <c r="M11" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="104"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="128"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -11675,16 +11711,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="110" t="s">
+      <c r="W13" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="112"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="136"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -15381,16 +15417,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19287,16 +19323,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -24091,26 +24127,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="114"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="118"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24128,7 +24164,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="119" t="b">
+      <c r="B5" s="141" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24140,10 +24176,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="119" t="b">
+      <c r="H5" s="141" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24155,12 +24191,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="137" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="120"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24170,8 +24206,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="H6" s="120"/>
+      <c r="F6" s="138"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24181,7 +24217,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="116"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24401,14 +24437,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -24441,26 +24477,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="114"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="118"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24478,7 +24514,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="119" t="b">
+      <c r="B5" s="141" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24492,10 +24528,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="119" t="b">
+      <c r="H5" s="141" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24507,12 +24543,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="137" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="120"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24524,8 +24560,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="H6" s="120"/>
+      <c r="F6" s="138"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24535,7 +24571,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="116"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24772,8 +24808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CD87D-F648-4BF3-845B-D067AC887F9E}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24782,89 +24818,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="G1" s="124" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="G1" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="H3" s="130" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="99"/>
+      <c r="H3" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="131"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="101" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="74"/>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="101" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="134" t="b">
+      <c r="A5" s="152" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="103">
         <v>127.3</v>
       </c>
-      <c r="D5" s="137">
+      <c r="D5" s="104">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="103">
         <v>127.2</v>
       </c>
-      <c r="I5" s="137">
+      <c r="I5" s="104">
         <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="139" t="s">
+      <c r="A6" s="153"/>
+      <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="106">
         <v>2.4</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="107">
         <v>71.2</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="140">
+      <c r="H6" s="106">
         <v>3.2</v>
       </c>
-      <c r="I6" s="141">
+      <c r="I6" s="107">
         <v>70.400000000000006</v>
       </c>
     </row>
@@ -24872,49 +24908,49 @@
       <c r="N8" s="98"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144">
+      <c r="B9" s="109"/>
+      <c r="C9" s="110">
         <v>0.967391</v>
       </c>
       <c r="D9" s="89"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146">
+      <c r="G9" s="111"/>
+      <c r="H9" s="112">
         <v>0.95652199999999998</v>
       </c>
-      <c r="I9" s="147"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="114" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="149">
+      <c r="C10" s="115">
         <v>3.1202000000000001E-2</v>
       </c>
       <c r="D10" s="91"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="150">
+      <c r="H10" s="116">
         <v>3.1962999999999998E-2</v>
       </c>
-      <c r="I10" s="151"/>
+      <c r="I10" s="117"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="I12" s="152"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="154">
+      <c r="C13" s="120">
         <v>3.1706999999999999E-2</v>
       </c>
       <c r="D13" s="43"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="154">
+      <c r="H13" s="120">
         <v>3.6097999999999998E-2</v>
       </c>
       <c r="I13" s="43"/>
@@ -24924,7 +24960,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="152"/>
+      <c r="A14" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -28501,10 +28537,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="70" customFormat="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="121"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:6">
@@ -28597,6 +28633,176 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="B1" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="G1" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="99"/>
+      <c r="H3" s="150" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="151"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="157">
+        <v>0.61658500000000005</v>
+      </c>
+      <c r="D5" s="158">
+        <v>2.4389999999999998E-2</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="157">
+        <v>0.61902400000000002</v>
+      </c>
+      <c r="I5" s="158">
+        <v>2.1950999999999998E-2</v>
+      </c>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="A6" s="153"/>
+      <c r="B6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="159">
+        <v>7.8050000000000003E-3</v>
+      </c>
+      <c r="D6" s="160">
+        <v>0.35121999999999998</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="159">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="I6" s="160">
+        <v>0.34780499999999998</v>
+      </c>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="163">
+        <v>0.97826100000000005</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="161">
+        <v>0.96875</v>
+      </c>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="A10" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="164">
+        <v>3.8052000000000002E-2</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="162">
+        <v>3.4247E-2</v>
+      </c>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1">
+      <c r="I12" s="118"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1">
+      <c r="A13" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="122">
+        <v>3.2195000000000001E-2</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="122">
+        <v>3.3170999999999999E-2</v>
+      </c>
+      <c r="I13" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D1BD3-6FA7-4787-B696-04D3642D0AA5}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -29035,7 +29241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3B66D-7BD8-4F2A-9287-C113CF501316}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -29294,10 +29500,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="122" t="s">
+      <c r="M15" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="123"/>
+      <c r="N15" s="156"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -29358,10 +29564,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="122" t="s">
+      <c r="M19" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="123"/>
+      <c r="N19" s="156"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -29536,7 +29742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA21E-70DE-47C0-9B79-6D95FAF31B83}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -29773,10 +29979,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="122" t="s">
+      <c r="M13" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="123"/>
+      <c r="N13" s="156"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -31051,17 +31257,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="102" t="s">
+      <c r="M10" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="104"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="128"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -31138,23 +31344,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="W12" s="105" t="s">
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="125"/>
+      <c r="W12" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="107"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="131"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -37967,16 +38173,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -41873,16 +42079,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -45767,16 +45973,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -46727,17 +46933,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="102" t="s">
+      <c r="M11" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="104"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="128"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -46846,16 +47052,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="110" t="s">
+      <c r="W13" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="112"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="136"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -46891,13 +47097,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="99" t="s">
+      <c r="M14" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="125"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9415B-AD52-40E1-91F6-E9D7974D85D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC5EF75-0315-406B-B4C4-0AF7446AFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="94">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -506,6 +506,21 @@
   <si>
     <t>Error Rate</t>
   </si>
+  <si>
+    <t>20% excision</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Knee_angle</t>
+  </si>
+  <si>
+    <t>knee error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knee opt </t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +640,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,8 +755,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1158,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1405,10 +1439,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1451,11 +1489,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,17 +1501,17 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,31 +1543,110 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3208,7 +3325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10632,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="133" t="s">
+      <c r="M1" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -11592,17 +11709,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="126" t="s">
+      <c r="M11" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="130"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -11711,16 +11828,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="134" t="s">
+      <c r="W13" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="136"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="138"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -15417,16 +15534,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19323,16 +19440,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -24138,15 +24255,15 @@
       <c r="K2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="140"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24164,7 +24281,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="141" t="b">
+      <c r="B5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24176,10 +24293,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="141" t="b">
+      <c r="H5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24191,12 +24308,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="145" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="142"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24206,8 +24323,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="138"/>
-      <c r="H6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24217,7 +24334,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="138"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24437,14 +24554,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -24456,7 +24573,7 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -24488,15 +24605,15 @@
       <c r="K2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="140"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24514,7 +24631,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="141" t="b">
+      <c r="B5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24528,10 +24645,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="141" t="b">
+      <c r="H5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24543,12 +24660,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="145" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="142"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24560,8 +24677,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="138"/>
-      <c r="H6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24571,7 +24688,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="138"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24818,30 +24935,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="G1" s="145" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="G1" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="99"/>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -24861,7 +24978,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="152" t="b">
+      <c r="A5" s="154" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -24884,7 +25001,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="153"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -28537,10 +28654,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="70" customFormat="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:6">
@@ -28634,42 +28751,75 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="B1" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="G1" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1"/>
+      <c r="C1" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="133"/>
+      <c r="E1" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="133"/>
+      <c r="G1" s="179" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="180"/>
+      <c r="I1" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="133"/>
+      <c r="L1" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="133"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1">
+      <c r="C2" s="121"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="23"/>
+    </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="99"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="184"/>
+      <c r="I3" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="157"/>
+      <c r="L3" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="157"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -28680,122 +28830,276 @@
       <c r="D4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="100" t="s">
+      <c r="E4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="F4" s="101" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="152" t="b">
+      <c r="G4" s="185" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
+      <c r="A5" s="154" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="157">
-        <v>0.61658500000000005</v>
-      </c>
-      <c r="D5" s="158">
-        <v>2.4389999999999998E-2</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="157">
-        <v>0.61902400000000002</v>
-      </c>
-      <c r="I5" s="158">
-        <v>2.1950999999999998E-2</v>
-      </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
+      <c r="C5" s="162">
+        <v>0.96726199999999996</v>
+      </c>
+      <c r="D5" s="163">
+        <v>3.2738000000000003E-2</v>
+      </c>
+      <c r="E5" s="162">
+        <v>0.96279800000000004</v>
+      </c>
+      <c r="F5" s="163">
+        <v>3.7201999999999999E-2</v>
+      </c>
+      <c r="G5" s="187">
+        <v>0.96651399999999998</v>
+      </c>
+      <c r="H5" s="188">
+        <v>3.3486000000000002E-2</v>
+      </c>
+      <c r="I5" s="162">
+        <v>0.96875</v>
+      </c>
+      <c r="J5" s="163">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K5" s="164"/>
+      <c r="L5" s="162">
+        <v>0.96428599999999998</v>
+      </c>
+      <c r="M5" s="163">
+        <v>3.5714000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="153"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="159">
-        <v>7.8050000000000003E-3</v>
-      </c>
-      <c r="D6" s="160">
-        <v>0.35121999999999998</v>
-      </c>
-      <c r="G6" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="159">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="I6" s="160">
-        <v>0.34780499999999998</v>
-      </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
+      <c r="C6" s="165">
+        <v>0.96726199999999996</v>
+      </c>
+      <c r="D6" s="166">
+        <v>3.2738000000000003E-2</v>
+      </c>
+      <c r="E6" s="165">
+        <v>9.9150000000000002E-3</v>
+      </c>
+      <c r="F6" s="166">
+        <v>0.99008499999999999</v>
+      </c>
+      <c r="G6" s="189">
+        <v>2.9891000000000001E-2</v>
+      </c>
+      <c r="H6" s="190">
+        <v>0.970109</v>
+      </c>
+      <c r="I6" s="165">
+        <v>3.2578000000000003E-2</v>
+      </c>
+      <c r="J6" s="166">
+        <v>0.967422</v>
+      </c>
+      <c r="K6" s="164"/>
+      <c r="L6" s="162">
+        <v>1.2748000000000001E-2</v>
+      </c>
+      <c r="M6" s="163">
+        <v>0.98725200000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1"/>
-    <row r="9" spans="1:16">
-      <c r="A9" s="108" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="168"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1">
+      <c r="C8" s="167"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="168"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1">
+      <c r="A9" s="122" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="163">
-        <v>0.97826100000000005</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="161">
-        <v>0.96875</v>
-      </c>
-      <c r="I9" s="113"/>
+      <c r="C9" s="170">
+        <v>0.97308799999999995</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171">
+        <v>0.99008499999999999</v>
+      </c>
+      <c r="F9" s="171"/>
+      <c r="G9" s="193">
+        <v>0.970109</v>
+      </c>
+      <c r="H9" s="193"/>
+      <c r="I9" s="171">
+        <v>0.967422</v>
+      </c>
+      <c r="J9" s="172"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="171">
+        <v>0.98725200000000002</v>
+      </c>
+      <c r="M9" s="172"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="164">
-        <v>3.8052000000000002E-2</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="162">
-        <v>3.4247E-2</v>
-      </c>
-      <c r="I10" s="117"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="173">
+        <v>3.2738000000000003E-2</v>
+      </c>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174">
+        <v>3.7201999999999999E-2</v>
+      </c>
+      <c r="F10" s="174"/>
+      <c r="G10" s="194">
+        <v>3.3486000000000002E-2</v>
+      </c>
+      <c r="H10" s="194"/>
+      <c r="I10" s="174">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J10" s="175"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="174">
+        <v>3.5714000000000003E-2</v>
+      </c>
+      <c r="M10" s="175"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="168"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1">
-      <c r="I12" s="118"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="176"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1">
       <c r="A13" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="122">
+      <c r="C13" s="177">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="177">
+        <v>2.7805E-2</v>
+      </c>
+      <c r="F13" s="178"/>
+      <c r="G13" s="196">
         <v>3.2195000000000001E-2</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="122">
-        <v>3.3170999999999999E-2</v>
-      </c>
-      <c r="I13" s="43"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="177">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="J13" s="178"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="177">
+        <v>2.7805E-2</v>
+      </c>
+      <c r="M13" s="178"/>
+    </row>
+    <row r="20" spans="4:5" ht="15" thickBot="1"/>
+    <row r="21" spans="4:5">
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="27">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29500,10 +29804,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="155" t="s">
+      <c r="M15" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="156"/>
+      <c r="N15" s="161"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -29564,10 +29868,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="155" t="s">
+      <c r="M19" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="156"/>
+      <c r="N19" s="161"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -29979,10 +30283,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="155" t="s">
+      <c r="M13" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="156"/>
+      <c r="N13" s="161"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -31257,17 +31561,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="126" t="s">
+      <c r="M10" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="130"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -31344,23 +31648,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="125"/>
-      <c r="W12" s="129" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="127"/>
+      <c r="W12" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="131"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="133"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -38173,16 +38477,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -42079,16 +42383,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -45973,16 +46277,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="133" t="s">
+      <c r="M1" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -46933,17 +47237,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="126" t="s">
+      <c r="M11" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="130"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -47052,16 +47356,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="134" t="s">
+      <c r="W13" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="136"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="138"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -47097,13 +47401,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="125"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="127"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC5EF75-0315-406B-B4C4-0AF7446AFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C22603-D0E1-429F-A4BE-B943D62B3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,10 +33,13 @@
     <sheet name="Sheet3" sheetId="23" r:id="rId18"/>
     <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
-    <sheet name="knee_l1pca" sheetId="25" r:id="rId21"/>
-    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId22"/>
-    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId23"/>
-    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId24"/>
+    <sheet name="absoluteerror" sheetId="25" r:id="rId21"/>
+    <sheet name="comparison" sheetId="28" r:id="rId22"/>
+    <sheet name="rmse" sheetId="26" r:id="rId23"/>
+    <sheet name="MAE" sheetId="27" r:id="rId24"/>
+    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId25"/>
+    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId26"/>
+    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="102">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -513,13 +516,37 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>Knee_angle</t>
-  </si>
-  <si>
     <t>knee error</t>
   </si>
   <si>
     <t xml:space="preserve">knee opt </t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knee </t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>knee diff</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knee diff opt </t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -529,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +661,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,20 +771,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1181,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1447,6 +1470,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1489,11 +1543,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1501,17 +1555,17 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,8 +1597,41 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,37 +1639,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1594,58 +1654,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3036,6 +3060,544 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5806A7A6-3BFE-2943-3E3E-D1EB86D6EA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="182880"/>
+          <a:ext cx="2324301" cy="3284505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198296</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE244CF-7DEC-1BB4-BA49-4A86D0604EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="182880"/>
+          <a:ext cx="2027096" cy="3322608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175434</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD41E997-F471-1D09-298A-0C58186983C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3657600"/>
+          <a:ext cx="2004234" cy="3254022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426915</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAA6AA3-EEF4-A386-2F00-408B9AF4002F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="3840480"/>
+          <a:ext cx="2255715" cy="3436918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594570</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46C32A5-5DD7-B74E-8ADE-C303C4774935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="3840480"/>
+          <a:ext cx="2423370" cy="3299746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137330</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07002A3E-63DF-C157-2597-7767D6352B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="365760"/>
+          <a:ext cx="1966130" cy="3284505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282123</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8BAF6-4D06-3540-C9D1-F03DBB053DB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="365760"/>
+          <a:ext cx="2110923" cy="3429297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183031</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7609DBC7-C6F0-C77A-9F59-73C6B0E56556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883920" y="518160"/>
+          <a:ext cx="1737511" cy="3254022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221129</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40036541-0A5F-99D6-B913-AE2E7998CFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="944880" y="3703320"/>
+          <a:ext cx="1714649" cy="3215919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205916</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773FC133-C337-5382-0511-DA9769491E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3779520"/>
+          <a:ext cx="2034716" cy="3093988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8664C0-6E3B-436E-9A5D-24BBA117537B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6126480" y="167640"/>
+          <a:ext cx="2423370" cy="3299746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167810</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CAEBCD-CE23-A40B-C28F-DA60D4001302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6126480" y="3596640"/>
+          <a:ext cx="1966130" cy="3284505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3325,7 +3887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10749,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -11709,17 +12271,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="130"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="145"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -11828,16 +12390,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="136" t="s">
+      <c r="W13" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="138"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="153"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -15534,16 +16096,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19440,16 +20002,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -24244,26 +24806,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="144"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="144"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="142"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="142"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24281,7 +24843,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="139" t="b">
+      <c r="B5" s="158" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24293,10 +24855,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="139" t="b">
+      <c r="H5" s="158" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24308,12 +24870,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="145" t="s">
+      <c r="L5" s="154" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="140"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24323,8 +24885,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="H6" s="140"/>
+      <c r="F6" s="155"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24334,7 +24896,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="146"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24554,14 +25116,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -24594,26 +25156,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="144"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="144"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="142"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="142"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24631,7 +25193,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="139" t="b">
+      <c r="B5" s="158" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24645,10 +25207,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="139" t="b">
+      <c r="H5" s="158" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24660,12 +25222,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="145" t="s">
+      <c r="L5" s="154" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="140"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24677,8 +25239,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="H6" s="140"/>
+      <c r="F6" s="155"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24688,7 +25250,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="146"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -24935,30 +25497,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="G1" s="147" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="G1" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="151"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="99"/>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="168"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -24978,7 +25540,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="154" t="b">
+      <c r="A5" s="169" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -25001,7 +25563,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="155"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -28654,10 +29216,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="70" customFormat="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="156"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:6">
@@ -28751,77 +29313,96 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="C1" s="131" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
+      <c r="C1" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="148"/>
+      <c r="E1" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="148"/>
+      <c r="G1" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="179" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="131" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="L1" s="131" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="133"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+      <c r="J1" s="148"/>
+      <c r="L1" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="148"/>
+      <c r="N1" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="148"/>
+      <c r="P1" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="148"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="C2" s="121"/>
       <c r="D2" s="23"/>
       <c r="E2" s="121"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="182"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="121"/>
       <c r="J2" s="23"/>
       <c r="L2" s="121"/>
       <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="N2" s="121"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="183" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="I3" s="152" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="157"/>
-      <c r="L3" s="152" t="s">
+      <c r="J3" s="166"/>
+      <c r="L3" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="157"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+      <c r="M3" s="166"/>
+      <c r="N3" s="165" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="173"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
       <c r="C4" s="100" t="s">
@@ -28836,10 +29417,10 @@
       <c r="F4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="186" t="s">
+      <c r="H4" s="101" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="100" t="s">
@@ -28854,225 +29435,326 @@
       <c r="M4" s="101" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1">
-      <c r="A5" s="154" t="b">
+      <c r="N4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1">
+      <c r="A5" s="169" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="162">
-        <v>0.96726199999999996</v>
-      </c>
-      <c r="D5" s="163">
-        <v>3.2738000000000003E-2</v>
-      </c>
-      <c r="E5" s="162">
-        <v>0.96279800000000004</v>
-      </c>
-      <c r="F5" s="163">
-        <v>3.7201999999999999E-2</v>
-      </c>
-      <c r="G5" s="187">
-        <v>0.96651399999999998</v>
-      </c>
-      <c r="H5" s="188">
-        <v>3.3486000000000002E-2</v>
-      </c>
-      <c r="I5" s="162">
-        <v>0.96875</v>
-      </c>
-      <c r="J5" s="163">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K5" s="164"/>
-      <c r="L5" s="162">
+      <c r="C5" s="133">
+        <v>0.95758900000000002</v>
+      </c>
+      <c r="D5" s="134">
+        <v>4.2410999999999997E-2</v>
+      </c>
+      <c r="E5" s="133">
+        <v>0.95610099999999998</v>
+      </c>
+      <c r="F5" s="134">
+        <v>4.3899000000000001E-2</v>
+      </c>
+      <c r="G5" s="133">
+        <v>0.95758900000000002</v>
+      </c>
+      <c r="H5" s="134">
+        <v>4.2410000000000003E-2</v>
+      </c>
+      <c r="I5" s="133">
         <v>0.96428599999999998</v>
       </c>
-      <c r="M5" s="163">
+      <c r="J5" s="134">
         <v>3.5714000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="155"/>
+      <c r="L5" s="133">
+        <v>0.96428599999999998</v>
+      </c>
+      <c r="M5" s="134">
+        <v>3.5714000000000003E-2</v>
+      </c>
+      <c r="N5" s="133">
+        <v>0.95833299999999999</v>
+      </c>
+      <c r="O5" s="134">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="P5" s="133">
+        <v>0.95758900000000002</v>
+      </c>
+      <c r="Q5" s="134">
+        <v>4.2410999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1">
+      <c r="A6" s="170"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="165">
-        <v>0.96726199999999996</v>
-      </c>
-      <c r="D6" s="166">
-        <v>3.2738000000000003E-2</v>
-      </c>
-      <c r="E6" s="165">
+      <c r="C6" s="135">
+        <v>7.0819999999999998E-3</v>
+      </c>
+      <c r="D6" s="136">
+        <v>0.99291799999999997</v>
+      </c>
+      <c r="E6" s="135">
+        <v>2.833E-3</v>
+      </c>
+      <c r="F6" s="136">
+        <v>0.99716700000000003</v>
+      </c>
+      <c r="G6" s="135">
         <v>9.9150000000000002E-3</v>
       </c>
-      <c r="F6" s="166">
+      <c r="H6" s="136">
         <v>0.99008499999999999</v>
       </c>
-      <c r="G6" s="189">
-        <v>2.9891000000000001E-2</v>
-      </c>
-      <c r="H6" s="190">
-        <v>0.970109</v>
-      </c>
-      <c r="I6" s="165">
-        <v>3.2578000000000003E-2</v>
-      </c>
-      <c r="J6" s="166">
-        <v>0.967422</v>
-      </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="162">
-        <v>1.2748000000000001E-2</v>
-      </c>
-      <c r="M6" s="163">
-        <v>0.98725200000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="168"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1">
-      <c r="C8" s="167"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="168"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1">
+      <c r="I6" s="135">
+        <v>2.2662999999999999E-2</v>
+      </c>
+      <c r="J6" s="136">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="L6" s="135">
+        <v>2.2662999999999999E-2</v>
+      </c>
+      <c r="M6" s="136">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="N6" s="135">
+        <v>1.6997000000000002E-2</v>
+      </c>
+      <c r="O6" s="136">
+        <v>0.98300299999999996</v>
+      </c>
+      <c r="P6" s="133">
+        <v>9.9150000000000002E-3</v>
+      </c>
+      <c r="Q6" s="134">
+        <v>0.99008499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="138"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1">
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="138"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="122" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="170">
-        <v>0.97308799999999995</v>
-      </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171">
+      <c r="C9" s="180">
+        <v>0.99291799999999997</v>
+      </c>
+      <c r="D9" s="175"/>
+      <c r="E9" s="180">
+        <v>0.99716700000000003</v>
+      </c>
+      <c r="F9" s="175"/>
+      <c r="G9" s="180">
         <v>0.99008499999999999</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="193">
-        <v>0.970109</v>
-      </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="171">
-        <v>0.967422</v>
-      </c>
-      <c r="J9" s="172"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="171">
-        <v>0.98725200000000002</v>
-      </c>
-      <c r="M9" s="172"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="H9" s="175"/>
+      <c r="I9" s="180">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="J9" s="175"/>
+      <c r="L9" s="182">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="M9" s="183"/>
+      <c r="N9" s="180">
+        <v>0.98300299999999996</v>
+      </c>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174">
+        <v>0.99008499999999999</v>
+      </c>
+      <c r="Q9" s="175"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1">
       <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="173">
-        <v>3.2738000000000003E-2</v>
-      </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174">
-        <v>3.7201999999999999E-2</v>
-      </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="194">
-        <v>3.3486000000000002E-2</v>
-      </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="174">
-        <v>3.125E-2</v>
-      </c>
-      <c r="J10" s="175"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="174">
+      <c r="C10" s="196">
+        <v>4.2410999999999997E-2</v>
+      </c>
+      <c r="D10" s="177"/>
+      <c r="E10" s="196">
+        <v>4.3899000000000001E-2</v>
+      </c>
+      <c r="F10" s="177"/>
+      <c r="G10" s="196">
+        <v>4.2410000000000003E-2</v>
+      </c>
+      <c r="H10" s="177"/>
+      <c r="I10" s="196">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="M10" s="175"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="168"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="176"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1">
-      <c r="A13" s="119" t="s">
-        <v>88</v>
-      </c>
+      <c r="J10" s="177"/>
+      <c r="L10" s="181">
+        <v>3.5714000000000003E-2</v>
+      </c>
+      <c r="M10" s="176"/>
+      <c r="N10" s="181">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176">
+        <v>4.2410999999999997E-2</v>
+      </c>
+      <c r="Q10" s="177"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1">
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="139"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="139"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1">
+      <c r="A13" s="119"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="177">
-        <v>3.1706999999999999E-2</v>
-      </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="177">
-        <v>2.7805E-2</v>
-      </c>
-      <c r="F13" s="178"/>
-      <c r="G13" s="196">
-        <v>3.2195000000000001E-2</v>
-      </c>
-      <c r="H13" s="197"/>
-      <c r="I13" s="177">
-        <v>3.1706999999999999E-2</v>
-      </c>
-      <c r="J13" s="178"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="177">
-        <v>2.7805E-2</v>
-      </c>
-      <c r="M13" s="178"/>
-    </row>
-    <row r="20" spans="4:5" ht="15" thickBot="1"/>
-    <row r="21" spans="4:5">
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="179"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="L16" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+    </row>
+    <row r="17" spans="4:10" ht="15" thickBot="1"/>
+    <row r="18" spans="4:10" ht="15" thickBot="1">
+      <c r="I18" s="146"/>
+      <c r="J18" s="148"/>
+    </row>
+    <row r="19" spans="4:10" ht="15" thickBot="1">
+      <c r="I19" s="121"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="4:10" ht="15" thickBot="1">
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
+    </row>
+    <row r="21" spans="4:10" ht="15" thickBot="1">
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+    </row>
+    <row r="23" spans="4:10" ht="15" thickBot="1">
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="I24" s="137"/>
+      <c r="J24" s="138"/>
+    </row>
+    <row r="25" spans="4:10" ht="15" thickBot="1">
+      <c r="I25" s="137"/>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="I26" s="180"/>
+      <c r="J26" s="175"/>
+    </row>
+    <row r="27" spans="4:10" ht="15" thickBot="1">
+      <c r="I27" s="196"/>
+      <c r="J27" s="177"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A5:A6"/>
@@ -29092,9 +29774,20 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L9:M9"/>
@@ -29107,6 +29800,365 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B401CF-5DC1-4130-AADD-E813039FE74B}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="C1" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="148"/>
+      <c r="E1" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="148"/>
+      <c r="G1" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="148"/>
+      <c r="I1" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="148"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="C2" s="121"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="167" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="173"/>
+      <c r="E3" s="165" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="173"/>
+      <c r="I3" s="167" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="173"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="125">
+        <v>0.93080399999999996</v>
+      </c>
+      <c r="D5" s="126">
+        <v>6.9195999999999994E-2</v>
+      </c>
+      <c r="E5" s="125">
+        <v>0.96428599999999998</v>
+      </c>
+      <c r="F5" s="126">
+        <v>3.5714000000000003E-2</v>
+      </c>
+      <c r="G5" s="125">
+        <v>0.96577400000000002</v>
+      </c>
+      <c r="H5" s="126">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="I5" s="125">
+        <v>0.96875</v>
+      </c>
+      <c r="J5" s="126">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="170"/>
+      <c r="B6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="127">
+        <v>5.666E-3</v>
+      </c>
+      <c r="D6" s="128">
+        <v>0.99433400000000005</v>
+      </c>
+      <c r="E6" s="127">
+        <v>2.4079E-2</v>
+      </c>
+      <c r="F6" s="128">
+        <v>0.97592100000000004</v>
+      </c>
+      <c r="G6" s="125">
+        <v>1.983E-2</v>
+      </c>
+      <c r="H6" s="126">
+        <v>0.98016999999999999</v>
+      </c>
+      <c r="I6" s="127">
+        <v>2.8329E-2</v>
+      </c>
+      <c r="J6" s="128">
+        <v>0.97167099999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="192">
+        <v>0.99433400000000005</v>
+      </c>
+      <c r="D9" s="192"/>
+      <c r="E9" s="191">
+        <v>0.97592100000000004</v>
+      </c>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192">
+        <v>0.98016999999999999</v>
+      </c>
+      <c r="H9" s="193"/>
+      <c r="I9" s="192">
+        <v>0.97167099999999995</v>
+      </c>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="189">
+        <v>6.9195999999999994E-2</v>
+      </c>
+      <c r="D10" s="189"/>
+      <c r="E10" s="188">
+        <v>3.5714000000000003E-2</v>
+      </c>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="H10" s="190"/>
+      <c r="I10" s="189">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J10" s="190"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="C12" s="129"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="A13" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="186">
+        <v>4.7316999999999998E-2</v>
+      </c>
+      <c r="D13" s="187"/>
+      <c r="E13" s="186">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="F13" s="187"/>
+      <c r="G13" s="186">
+        <v>2.9267999999999999E-2</v>
+      </c>
+      <c r="H13" s="187"/>
+      <c r="I13" s="186">
+        <v>3.0244E-2</v>
+      </c>
+      <c r="J13" s="187"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="132" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA9A628-86B6-413E-A0B6-7CF767B83EBF}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9728650A-9351-487F-A67C-46E45D31A050}">
+  <dimension ref="A2:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D1BD3-6FA7-4787-B696-04D3642D0AA5}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -29545,7 +30597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3B66D-7BD8-4F2A-9287-C113CF501316}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -29804,10 +30856,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="160" t="s">
+      <c r="M15" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="161"/>
+      <c r="N15" s="195"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -29868,10 +30920,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="160" t="s">
+      <c r="M19" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="161"/>
+      <c r="N19" s="195"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -30046,7 +31098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA21E-70DE-47C0-9B79-6D95FAF31B83}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -30283,10 +31335,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="160" t="s">
+      <c r="M13" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="161"/>
+      <c r="N13" s="195"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -31561,17 +32613,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="128" t="s">
+      <c r="M10" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="130"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -31648,23 +32700,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="W12" s="131" t="s">
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="142"/>
+      <c r="W12" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="133"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="148"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -38477,16 +39529,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -42383,16 +43435,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -46277,16 +47329,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -47237,17 +48289,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="130"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="145"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -47356,16 +48408,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="136" t="s">
+      <c r="W13" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="138"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="153"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -47401,13 +48453,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M14" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="142"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C22603-D0E1-429F-A4BE-B943D62B3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C24B3-4742-4A08-9858-8728E89852B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="106">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -548,6 +548,18 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>L1 knee error</t>
+  </si>
+  <si>
+    <t>L1 20% excision</t>
+  </si>
+  <si>
+    <t>knee opt rank error</t>
+  </si>
+  <si>
+    <t>knee opt rank angle</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +674,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1500,7 +1518,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1560,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,12 +1582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,40 +1614,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1639,10 +1632,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1654,13 +1656,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,7 +1668,62 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11311,16 +11365,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -12271,17 +12325,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="143" t="s">
+      <c r="M11" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="145"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="144"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -12390,16 +12444,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="151" t="s">
+      <c r="W13" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="153"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="152"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -16096,16 +16150,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -20002,16 +20056,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -24806,26 +24860,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="161"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="161"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="157"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24843,7 +24897,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="158" t="b">
+      <c r="B5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24855,10 +24909,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="158" t="b">
+      <c r="H5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24870,12 +24924,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="L5" s="155" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="159"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24885,8 +24939,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="H6" s="159"/>
+      <c r="F6" s="156"/>
+      <c r="H6" s="160"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24896,7 +24950,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25116,14 +25170,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -25156,26 +25210,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="161"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="161"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="157"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -25193,7 +25247,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="158" t="b">
+      <c r="B5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -25207,10 +25261,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="158" t="b">
+      <c r="H5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -25222,12 +25276,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="L5" s="155" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="159"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25239,8 +25293,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="H6" s="159"/>
+      <c r="F6" s="156"/>
+      <c r="H6" s="160"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25250,7 +25304,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25497,30 +25551,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="G1" s="162" t="s">
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="G1" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="163"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="166"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="99"/>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -25540,7 +25594,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="169" t="b">
+      <c r="A5" s="168" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -25563,7 +25617,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="170"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29216,10 +29270,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="70" customFormat="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="171"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:6">
@@ -29313,10 +29367,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29324,37 +29378,41 @@
     <col min="2" max="2" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="C1" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="146" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1">
+      <c r="C1" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="147"/>
+      <c r="G1" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="147"/>
+      <c r="I1" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="147"/>
+      <c r="K1" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="147"/>
+      <c r="M1" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="146" t="s">
+      <c r="N1" s="190"/>
+      <c r="O1" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="148"/>
-      <c r="P1" s="146" t="s">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="148"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="R1" s="190"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="C2" s="121"/>
       <c r="D2" s="23"/>
       <c r="E2" s="121"/>
@@ -29363,46 +29421,52 @@
       <c r="H2" s="23"/>
       <c r="I2" s="121"/>
       <c r="J2" s="23"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
+      <c r="K2" s="121"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="165" t="s">
+      <c r="D3" s="165"/>
+      <c r="E3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="165" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="165" t="s">
+      <c r="H3" s="165"/>
+      <c r="I3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="166"/>
-      <c r="L3" s="165" t="s">
+      <c r="J3" s="165"/>
+      <c r="K3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="165" t="s">
+      <c r="L3" s="165"/>
+      <c r="M3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167" t="s">
+      <c r="N3" s="194"/>
+      <c r="O3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="173"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+      <c r="P3" s="194"/>
+      <c r="Q3" s="193" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="194"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
       <c r="C4" s="100" t="s">
@@ -29429,27 +29493,33 @@
       <c r="J4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="K4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="M4" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="N4" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="O4" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="P4" s="196" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
-      <c r="A5" s="169" t="b">
+      <c r="Q4" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1">
+      <c r="A5" s="168" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -29474,32 +29544,38 @@
         <v>4.2410000000000003E-2</v>
       </c>
       <c r="I5" s="133">
+        <v>0.95684499999999995</v>
+      </c>
+      <c r="J5" s="134">
+        <v>4.3154999999999999E-2</v>
+      </c>
+      <c r="K5" s="133">
         <v>0.96428599999999998</v>
       </c>
-      <c r="J5" s="134">
+      <c r="L5" s="134">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="L5" s="133">
+      <c r="M5" s="197">
         <v>0.96428599999999998</v>
       </c>
-      <c r="M5" s="134">
+      <c r="N5" s="198">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="N5" s="133">
+      <c r="O5" s="197">
         <v>0.95833299999999999</v>
       </c>
-      <c r="O5" s="134">
+      <c r="P5" s="198">
         <v>4.1667000000000003E-2</v>
       </c>
-      <c r="P5" s="133">
+      <c r="Q5" s="197">
         <v>0.95758900000000002</v>
       </c>
-      <c r="Q5" s="134">
+      <c r="R5" s="198">
         <v>4.2410999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="170"/>
+    <row r="6" spans="1:18" ht="15" thickBot="1">
+      <c r="A6" s="169"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29522,31 +29598,37 @@
         <v>0.99008499999999999</v>
       </c>
       <c r="I6" s="135">
+        <v>1.2748000000000001E-2</v>
+      </c>
+      <c r="J6" s="136">
+        <v>0.98725200000000002</v>
+      </c>
+      <c r="K6" s="135">
         <v>2.2662999999999999E-2</v>
       </c>
-      <c r="J6" s="136">
+      <c r="L6" s="136">
         <v>0.97733700000000001</v>
       </c>
-      <c r="L6" s="135">
+      <c r="M6" s="199">
         <v>2.2662999999999999E-2</v>
       </c>
-      <c r="M6" s="136">
+      <c r="N6" s="200">
         <v>0.97733700000000001</v>
       </c>
-      <c r="N6" s="135">
+      <c r="O6" s="199">
         <v>1.6997000000000002E-2</v>
       </c>
-      <c r="O6" s="136">
+      <c r="P6" s="200">
         <v>0.98300299999999996</v>
       </c>
-      <c r="P6" s="133">
+      <c r="Q6" s="197">
         <v>9.9150000000000002E-3</v>
       </c>
-      <c r="Q6" s="134">
+      <c r="R6" s="198">
         <v>0.99008499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="C7" s="137"/>
       <c r="D7" s="138"/>
       <c r="E7" s="137"/>
@@ -29555,14 +29637,16 @@
       <c r="H7" s="138"/>
       <c r="I7" s="137"/>
       <c r="J7" s="138"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="138"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
+      <c r="K7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="202"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1">
       <c r="C8" s="137"/>
       <c r="D8" s="138"/>
       <c r="E8" s="137"/>
@@ -29571,228 +29655,209 @@
       <c r="H8" s="138"/>
       <c r="I8" s="137"/>
       <c r="J8" s="138"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="138"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="202"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1">
       <c r="A9" s="122" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="180">
+      <c r="C9" s="171">
         <v>0.99291799999999997</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="180">
+      <c r="D9" s="172"/>
+      <c r="E9" s="171">
         <v>0.99716700000000003</v>
       </c>
-      <c r="F9" s="175"/>
-      <c r="G9" s="180">
+      <c r="F9" s="172"/>
+      <c r="G9" s="171">
         <v>0.99008499999999999</v>
       </c>
-      <c r="H9" s="175"/>
-      <c r="I9" s="180">
+      <c r="H9" s="172"/>
+      <c r="I9" s="171">
+        <v>0.98725200000000002</v>
+      </c>
+      <c r="J9" s="172"/>
+      <c r="K9" s="171">
         <v>0.97733700000000001</v>
       </c>
-      <c r="J9" s="175"/>
-      <c r="L9" s="182">
+      <c r="L9" s="172"/>
+      <c r="M9" s="203">
         <v>0.97733700000000001</v>
       </c>
-      <c r="M9" s="183"/>
-      <c r="N9" s="180">
+      <c r="N9" s="204"/>
+      <c r="O9" s="205">
         <v>0.98300299999999996</v>
       </c>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174">
+      <c r="P9" s="206"/>
+      <c r="Q9" s="206">
         <v>0.99008499999999999</v>
       </c>
-      <c r="Q9" s="175"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
+      <c r="R9" s="207"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1">
       <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="196">
+      <c r="C10" s="173">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="196">
+      <c r="D10" s="174"/>
+      <c r="E10" s="173">
         <v>4.3899000000000001E-2</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="196">
+      <c r="F10" s="174"/>
+      <c r="G10" s="173">
         <v>4.2410000000000003E-2</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="196">
+      <c r="H10" s="174"/>
+      <c r="I10" s="173">
+        <v>4.3154999999999999E-2</v>
+      </c>
+      <c r="J10" s="174"/>
+      <c r="K10" s="173">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="J10" s="177"/>
-      <c r="L10" s="181">
+      <c r="L10" s="174"/>
+      <c r="M10" s="208">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="M10" s="176"/>
-      <c r="N10" s="181">
+      <c r="N10" s="209"/>
+      <c r="O10" s="208">
         <v>4.1667000000000003E-2</v>
       </c>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176">
+      <c r="P10" s="209"/>
+      <c r="Q10" s="209">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="Q10" s="177"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1">
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="139"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="139"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="179"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="L16" s="172" t="s">
+      <c r="R10" s="210"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="M13" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-    </row>
-    <row r="17" spans="4:10" ht="15" thickBot="1"/>
-    <row r="18" spans="4:10" ht="15" thickBot="1">
-      <c r="I18" s="146"/>
-      <c r="J18" s="148"/>
-    </row>
-    <row r="19" spans="4:10" ht="15" thickBot="1">
-      <c r="I19" s="121"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="4:10" ht="15" thickBot="1">
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
-    </row>
-    <row r="21" spans="4:10" ht="15" thickBot="1">
-      <c r="D21" s="184"/>
-      <c r="E21" s="185"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101"/>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-    </row>
-    <row r="23" spans="4:10" ht="15" thickBot="1">
-      <c r="I23" s="135"/>
-      <c r="J23" s="136"/>
-    </row>
-    <row r="24" spans="4:10">
-      <c r="I24" s="137"/>
-      <c r="J24" s="138"/>
-    </row>
-    <row r="25" spans="4:10" ht="15" thickBot="1">
-      <c r="I25" s="137"/>
-      <c r="J25" s="138"/>
-    </row>
-    <row r="26" spans="4:10">
-      <c r="I26" s="180"/>
-      <c r="J26" s="175"/>
-    </row>
-    <row r="27" spans="4:10" ht="15" thickBot="1">
-      <c r="I27" s="196"/>
-      <c r="J27" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1"/>
+    <row r="15" spans="1:18" ht="15" thickBot="1">
+      <c r="I15" s="145"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="147"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1">
+      <c r="I16" s="121"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="4:12" ht="15" thickBot="1">
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="165"/>
+    </row>
+    <row r="18" spans="4:12" ht="15" thickBot="1">
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+    </row>
+    <row r="20" spans="4:12" ht="15" thickBot="1">
+      <c r="I20" s="135"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="136"/>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="I21" s="137"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="138"/>
+    </row>
+    <row r="22" spans="4:12" ht="15" thickBot="1">
+      <c r="I22" s="137"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="138"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="4:12" ht="15" thickBot="1">
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="174"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
+  <mergeCells count="43">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29810,22 +29875,22 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="146" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="146" t="s">
+      <c r="F1" s="147"/>
+      <c r="G1" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="146" t="s">
+      <c r="H1" s="147"/>
+      <c r="I1" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="C2" s="121"/>
@@ -29840,22 +29905,22 @@
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="165" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="173"/>
-      <c r="I3" s="167" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="173"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -29886,7 +29951,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="169" t="b">
+      <c r="A5" s="168" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -29918,7 +29983,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="170"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29972,44 +30037,44 @@
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="192">
+      <c r="C9" s="180">
         <v>0.99433400000000005</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="191">
+      <c r="D9" s="180"/>
+      <c r="E9" s="179">
         <v>0.97592100000000004</v>
       </c>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192">
+      <c r="F9" s="180"/>
+      <c r="G9" s="180">
         <v>0.98016999999999999</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="192">
+      <c r="H9" s="181"/>
+      <c r="I9" s="180">
         <v>0.97167099999999995</v>
       </c>
-      <c r="J9" s="193"/>
+      <c r="J9" s="181"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="189">
+      <c r="C10" s="183">
         <v>6.9195999999999994E-2</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="188">
+      <c r="D10" s="183"/>
+      <c r="E10" s="182">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189">
+      <c r="F10" s="183"/>
+      <c r="G10" s="183">
         <v>3.4225999999999999E-2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="189">
+      <c r="H10" s="184"/>
+      <c r="I10" s="183">
         <v>3.125E-2</v>
       </c>
-      <c r="J10" s="190"/>
+      <c r="J10" s="184"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="129"/>
@@ -30036,22 +30101,22 @@
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="186">
+      <c r="C13" s="185">
         <v>4.7316999999999998E-2</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="186">
+      <c r="D13" s="186"/>
+      <c r="E13" s="185">
         <v>3.1706999999999999E-2</v>
       </c>
-      <c r="F13" s="187"/>
-      <c r="G13" s="186">
+      <c r="F13" s="186"/>
+      <c r="G13" s="185">
         <v>2.9267999999999999E-2</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="186">
+      <c r="H13" s="186"/>
+      <c r="I13" s="185">
         <v>3.0244E-2</v>
       </c>
-      <c r="J13" s="187"/>
+      <c r="J13" s="186"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="132" t="s">
@@ -30060,6 +30125,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="I1:J1"/>
@@ -30071,16 +30146,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30856,10 +30921,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="194" t="s">
+      <c r="M15" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="195"/>
+      <c r="N15" s="188"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -30920,10 +30985,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="194" t="s">
+      <c r="M19" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="195"/>
+      <c r="N19" s="188"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -31335,10 +31400,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="194" t="s">
+      <c r="M13" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="195"/>
+      <c r="N13" s="188"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -32613,17 +32678,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="143" t="s">
+      <c r="M10" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="145"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="144"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -32700,23 +32765,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="140" t="s">
+      <c r="M12" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="142"/>
-      <c r="W12" s="146" t="s">
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="141"/>
+      <c r="W12" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="147"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -39529,16 +39594,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -43435,16 +43500,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -47329,16 +47394,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -48289,17 +48354,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="143" t="s">
+      <c r="M11" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="145"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="144"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -48408,16 +48473,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="151" t="s">
+      <c r="W13" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="153"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="152"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -48453,13 +48518,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="140" t="s">
+      <c r="M14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="142"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C24B3-4742-4A08-9858-8728E89852B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA20E6A-1EC4-48CE-8C05-703D5CACAFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="103">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -537,28 +537,19 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>knee diff</t>
+    <t>5 ranks</t>
   </si>
   <si>
-    <t>raw</t>
+    <t>L1 -rank 1 knee (line fit error)</t>
   </si>
   <si>
-    <t xml:space="preserve">knee diff opt </t>
+    <t>L1 rank 1 20% excision</t>
   </si>
   <si>
-    <t>diff</t>
+    <t>knee error + opt rank (1 to 3) using angle</t>
   </si>
   <si>
-    <t>L1 knee error</t>
-  </si>
-  <si>
-    <t>L1 20% excision</t>
-  </si>
-  <si>
-    <t>knee opt rank error</t>
-  </si>
-  <si>
-    <t>knee opt rank angle</t>
+    <t>knee error  + opt rank(1 to 5) using angle</t>
   </si>
 </sst>
 </file>
@@ -674,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,14 +774,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1199,24 +1184,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1560,6 +1532,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,18 +1555,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,6 +1586,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,12 +1610,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,6 +1618,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1667,64 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24860,26 +24777,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="154"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="153" t="s">
+      <c r="J2" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="154"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="158"/>
+      <c r="K3" s="156"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24897,7 +24814,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="159" t="b">
+      <c r="B5" s="153" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24909,10 +24826,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="159" t="b">
+      <c r="H5" s="153" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24924,12 +24841,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="155" t="s">
+      <c r="L5" s="159" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="160"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24939,8 +24856,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="H6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="H6" s="154"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24950,7 +24867,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="156"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25170,14 +25087,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -25210,26 +25127,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="154"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="153" t="s">
+      <c r="J2" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="154"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="158"/>
+      <c r="K3" s="156"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -25247,7 +25164,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="159" t="b">
+      <c r="B5" s="153" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -25261,10 +25178,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="159" t="b">
+      <c r="H5" s="153" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -25276,12 +25193,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="155" t="s">
+      <c r="L5" s="159" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="160"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25293,8 +25210,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="H6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="H6" s="154"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25304,7 +25221,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="156"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -29367,52 +29284,48 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
-      <c r="C1" s="145" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="C1" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="144"/>
+      <c r="E1" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="144"/>
+      <c r="G1" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="144"/>
+      <c r="I1" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="145" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="147"/>
-      <c r="I1" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="145" t="s">
+      <c r="J1" s="144"/>
+      <c r="K1" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="189" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="190"/>
-      <c r="O1" s="189" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="189" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="190"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
+      <c r="L1" s="144"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="C2" s="121"/>
       <c r="D2" s="23"/>
       <c r="E2" s="121"/>
@@ -29423,14 +29336,8 @@
       <c r="J2" s="23"/>
       <c r="K2" s="121"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="192"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="164" t="s">
@@ -29453,20 +29360,8 @@
         <v>53</v>
       </c>
       <c r="L3" s="165"/>
-      <c r="M3" s="193" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="194"/>
-      <c r="O3" s="193" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="193" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="194"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1">
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
       <c r="C4" s="100" t="s">
@@ -29499,26 +29394,8 @@
       <c r="L4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="195" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="195" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="195" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="196" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="168" t="b">
         <v>1</v>
       </c>
@@ -29541,7 +29418,7 @@
         <v>0.95758900000000002</v>
       </c>
       <c r="H5" s="134">
-        <v>4.2410000000000003E-2</v>
+        <v>4.2410999999999997E-2</v>
       </c>
       <c r="I5" s="133">
         <v>0.95684499999999995</v>
@@ -29555,26 +29432,8 @@
       <c r="L5" s="134">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="M5" s="197">
-        <v>0.96428599999999998</v>
-      </c>
-      <c r="N5" s="198">
-        <v>3.5714000000000003E-2</v>
-      </c>
-      <c r="O5" s="197">
-        <v>0.95833299999999999</v>
-      </c>
-      <c r="P5" s="198">
-        <v>4.1667000000000003E-2</v>
-      </c>
-      <c r="Q5" s="197">
-        <v>0.95758900000000002</v>
-      </c>
-      <c r="R5" s="198">
-        <v>4.2410999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1">
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="169"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
@@ -29592,10 +29451,10 @@
         <v>0.99716700000000003</v>
       </c>
       <c r="G6" s="135">
-        <v>9.9150000000000002E-3</v>
+        <v>5.666E-3</v>
       </c>
       <c r="H6" s="136">
-        <v>0.99008499999999999</v>
+        <v>0.99433400000000005</v>
       </c>
       <c r="I6" s="135">
         <v>1.2748000000000001E-2</v>
@@ -29609,26 +29468,8 @@
       <c r="L6" s="136">
         <v>0.97733700000000001</v>
       </c>
-      <c r="M6" s="199">
-        <v>2.2662999999999999E-2</v>
-      </c>
-      <c r="N6" s="200">
-        <v>0.97733700000000001</v>
-      </c>
-      <c r="O6" s="199">
-        <v>1.6997000000000002E-2</v>
-      </c>
-      <c r="P6" s="200">
-        <v>0.98300299999999996</v>
-      </c>
-      <c r="Q6" s="197">
-        <v>9.9150000000000002E-3</v>
-      </c>
-      <c r="R6" s="198">
-        <v>0.99008499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:12">
       <c r="C7" s="137"/>
       <c r="D7" s="138"/>
       <c r="E7" s="137"/>
@@ -29639,14 +29480,8 @@
       <c r="J7" s="138"/>
       <c r="K7" s="137"/>
       <c r="L7" s="138"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="202"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1">
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="C8" s="137"/>
       <c r="D8" s="138"/>
       <c r="E8" s="137"/>
@@ -29657,107 +29492,74 @@
       <c r="J8" s="138"/>
       <c r="K8" s="137"/>
       <c r="L8" s="138"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="202"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1">
-      <c r="A9" s="122" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="A9" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="171">
+      <c r="B9" s="172"/>
+      <c r="C9" s="173">
         <v>0.99291799999999997</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="171">
+      <c r="D9" s="174"/>
+      <c r="E9" s="173">
         <v>0.99716700000000003</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="171">
-        <v>0.99008499999999999</v>
-      </c>
-      <c r="H9" s="172"/>
-      <c r="I9" s="171">
+      <c r="F9" s="174"/>
+      <c r="G9" s="173">
+        <v>0.99433400000000005</v>
+      </c>
+      <c r="H9" s="174"/>
+      <c r="I9" s="173">
         <v>0.98725200000000002</v>
       </c>
-      <c r="J9" s="172"/>
-      <c r="K9" s="171">
+      <c r="J9" s="174"/>
+      <c r="K9" s="173">
         <v>0.97733700000000001</v>
       </c>
-      <c r="L9" s="172"/>
-      <c r="M9" s="203">
-        <v>0.97733700000000001</v>
-      </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205">
-        <v>0.98300299999999996</v>
-      </c>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="206">
-        <v>0.99008499999999999</v>
-      </c>
-      <c r="R9" s="207"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1">
-      <c r="A10" s="123" t="s">
+      <c r="L9" s="174"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1">
+      <c r="A10" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="173">
+      <c r="B10" s="172"/>
+      <c r="C10" s="175">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="173">
+      <c r="D10" s="176"/>
+      <c r="E10" s="175">
         <v>4.3899000000000001E-2</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="173">
-        <v>4.2410000000000003E-2</v>
-      </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="173">
+      <c r="F10" s="176"/>
+      <c r="G10" s="175">
+        <v>4.2410999999999997E-2</v>
+      </c>
+      <c r="H10" s="176"/>
+      <c r="I10" s="175">
         <v>4.3154999999999999E-2</v>
       </c>
-      <c r="J10" s="174"/>
-      <c r="K10" s="173">
+      <c r="J10" s="176"/>
+      <c r="K10" s="175">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="L10" s="174"/>
-      <c r="M10" s="208">
-        <v>3.5714000000000003E-2</v>
-      </c>
-      <c r="N10" s="209"/>
-      <c r="O10" s="208">
-        <v>4.1667000000000003E-2</v>
-      </c>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="209">
-        <v>4.2410999999999997E-2</v>
-      </c>
-      <c r="R10" s="210"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="M13" s="177" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1"/>
-    <row r="15" spans="1:18" ht="15" thickBot="1">
+      <c r="L10" s="176"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1"/>
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="I15" s="145"/>
       <c r="J15" s="147"/>
       <c r="K15" s="145"/>
       <c r="L15" s="147"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
       <c r="I16" s="121"/>
       <c r="J16" s="23"/>
       <c r="K16" s="121"/>
@@ -29770,8 +29572,8 @@
       <c r="L17" s="165"/>
     </row>
     <row r="18" spans="4:12" ht="15" thickBot="1">
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
       <c r="I18" s="100"/>
       <c r="J18" s="101"/>
       <c r="K18" s="100"/>
@@ -29802,62 +29604,52 @@
       <c r="L22" s="138"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="174"/>
     </row>
     <row r="24" spans="4:12" ht="15" thickBot="1">
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="174"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="33">
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29908,7 +29700,7 @@
       <c r="C3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="178"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="164" t="s">
         <v>53</v>
       </c>
@@ -29916,11 +29708,11 @@
       <c r="G3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="178"/>
+      <c r="H3" s="182"/>
       <c r="I3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="178"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -30059,22 +29851,22 @@
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="183">
+      <c r="C10" s="184">
         <v>6.9195999999999994E-2</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="182">
+      <c r="D10" s="184"/>
+      <c r="E10" s="183">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183">
+      <c r="F10" s="184"/>
+      <c r="G10" s="184">
         <v>3.4225999999999999E-2</v>
       </c>
-      <c r="H10" s="184"/>
-      <c r="I10" s="183">
+      <c r="H10" s="185"/>
+      <c r="I10" s="184">
         <v>3.125E-2</v>
       </c>
-      <c r="J10" s="184"/>
+      <c r="J10" s="185"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="129"/>
@@ -30101,22 +29893,22 @@
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="185">
+      <c r="C13" s="186">
         <v>4.7316999999999998E-2</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="185">
+      <c r="D13" s="187"/>
+      <c r="E13" s="186">
         <v>3.1706999999999999E-2</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="185">
+      <c r="F13" s="187"/>
+      <c r="G13" s="186">
         <v>2.9267999999999999E-2</v>
       </c>
-      <c r="H13" s="186"/>
-      <c r="I13" s="185">
+      <c r="H13" s="187"/>
+      <c r="I13" s="186">
         <v>3.0244E-2</v>
       </c>
-      <c r="J13" s="186"/>
+      <c r="J13" s="187"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="132" t="s">
@@ -30921,10 +30713,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="187" t="s">
+      <c r="M15" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="188"/>
+      <c r="N15" s="189"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -30985,10 +30777,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="187" t="s">
+      <c r="M19" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="188"/>
+      <c r="N19" s="189"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -31400,10 +31192,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="187" t="s">
+      <c r="M13" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="188"/>
+      <c r="N13" s="189"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA20E6A-1EC4-48CE-8C05-703D5CACAFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296D3084-36DD-4D9C-978F-2FC4687929D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="23" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,16 +30,18 @@
     <sheet name="outlier removal dbscan" sheetId="22" r:id="rId15"/>
     <sheet name="ace svm%20" sheetId="14" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="23" r:id="rId18"/>
-    <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
-    <sheet name="absoluteerror" sheetId="25" r:id="rId21"/>
-    <sheet name="comparison" sheetId="28" r:id="rId22"/>
-    <sheet name="rmse" sheetId="26" r:id="rId23"/>
-    <sheet name="MAE" sheetId="27" r:id="rId24"/>
-    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId25"/>
-    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId26"/>
-    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId27"/>
+    <sheet name="Sheet4" sheetId="29" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="23" r:id="rId19"/>
+    <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId21"/>
+    <sheet name="absoluteerror" sheetId="25" r:id="rId22"/>
+    <sheet name="comparison" sheetId="28" r:id="rId23"/>
+    <sheet name="svm rank 8" sheetId="30" r:id="rId24"/>
+    <sheet name="rmse" sheetId="26" r:id="rId25"/>
+    <sheet name="MAE" sheetId="27" r:id="rId26"/>
+    <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId27"/>
+    <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId28"/>
+    <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="103">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -665,7 +667,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +773,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1532,11 +1540,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1544,17 +1552,17 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1586,12 +1594,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,13 +1612,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,10 +1636,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,6 +1650,67 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24777,15 +24846,15 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="158"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="157" t="s">
+      <c r="J2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
       <c r="D3" s="155" t="s">
@@ -24814,7 +24883,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="153" t="b">
+      <c r="B5" s="157" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24826,10 +24895,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="153" t="b">
+      <c r="H5" s="157" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24841,12 +24910,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="153" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="154"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24856,8 +24925,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="H6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24867,7 +24936,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="160"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25087,14 +25156,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -25102,6 +25171,18 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381046A6-F9FC-442B-88A0-8AFA5BD4EC91}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF17528-73F7-428C-8897-4342D29A6053}">
   <dimension ref="B1:L23"/>
   <sheetViews>
@@ -25127,15 +25208,15 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="158"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="157" t="s">
+      <c r="J2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
       <c r="D3" s="155" t="s">
@@ -25164,7 +25245,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="153" t="b">
+      <c r="B5" s="157" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -25178,10 +25259,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="153" t="b">
+      <c r="H5" s="157" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -25193,12 +25274,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="153" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="154"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25210,8 +25291,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="H6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25221,7 +25302,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="160"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25451,177 +25532,6 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CD87D-F648-4BF3-845B-D067AC887F9E}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="G1" s="161" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="162"/>
-      <c r="I1" s="163"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1"/>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="164" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="99"/>
-      <c r="H3" s="166" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="167"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="168" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="103">
-        <v>127.3</v>
-      </c>
-      <c r="D5" s="104">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="103">
-        <v>127.2</v>
-      </c>
-      <c r="I5" s="104">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="106">
-        <v>2.4</v>
-      </c>
-      <c r="D6" s="107">
-        <v>71.2</v>
-      </c>
-      <c r="G6" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="106">
-        <v>3.2</v>
-      </c>
-      <c r="I6" s="107">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="N8" s="98"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110">
-        <v>0.967391</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112">
-        <v>0.95652199999999998</v>
-      </c>
-      <c r="I9" s="113"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="115">
-        <v>3.1202000000000001E-2</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="116">
-        <v>3.1962999999999998E-2</v>
-      </c>
-      <c r="I10" s="117"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="I12" s="118"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="120">
-        <v>3.1706999999999999E-2</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="120">
-        <v>3.6097999999999998E-2</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="K13">
-        <f>(H13-C13)/H13 *100</f>
-        <v>12.164108814892789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="118"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29171,6 +29081,177 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CD87D-F648-4BF3-845B-D067AC887F9E}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="B1" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="G1" s="161" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="162"/>
+      <c r="I1" s="163"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="164" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="165"/>
+      <c r="E3" s="99"/>
+      <c r="H3" s="166" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="167"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="168" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="103">
+        <v>127.3</v>
+      </c>
+      <c r="D5" s="104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="103">
+        <v>127.2</v>
+      </c>
+      <c r="I5" s="104">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="169"/>
+      <c r="B6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="106">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="107">
+        <v>71.2</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="106">
+        <v>3.2</v>
+      </c>
+      <c r="I6" s="107">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="N8" s="98"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110">
+        <v>0.967391</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="115">
+        <v>3.1202000000000001E-2</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="116">
+        <v>3.1962999999999998E-2</v>
+      </c>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="I12" s="118"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="120">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="120">
+        <v>3.6097999999999998E-2</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="K13">
+        <f>(H13-C13)/H13 *100</f>
+        <v>12.164108814892789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3785AFE-4517-4239-AB9A-9F7F55BC8000}">
   <dimension ref="B1:F20"/>
   <sheetViews>
@@ -29282,12 +29363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DF354-B4C5-4987-AD53-701F83618ECD}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29494,56 +29575,56 @@
       <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173">
+      <c r="B9" s="178"/>
+      <c r="C9" s="171">
         <v>0.99291799999999997</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="173">
+      <c r="D9" s="172"/>
+      <c r="E9" s="171">
         <v>0.99716700000000003</v>
       </c>
-      <c r="F9" s="174"/>
-      <c r="G9" s="173">
+      <c r="F9" s="172"/>
+      <c r="G9" s="171">
         <v>0.99433400000000005</v>
       </c>
-      <c r="H9" s="174"/>
-      <c r="I9" s="173">
+      <c r="H9" s="172"/>
+      <c r="I9" s="171">
         <v>0.98725200000000002</v>
       </c>
-      <c r="J9" s="174"/>
-      <c r="K9" s="173">
+      <c r="J9" s="172"/>
+      <c r="K9" s="171">
         <v>0.97733700000000001</v>
       </c>
-      <c r="L9" s="174"/>
+      <c r="L9" s="172"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="172"/>
-      <c r="C10" s="175">
+      <c r="B10" s="178"/>
+      <c r="C10" s="173">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="175">
+      <c r="D10" s="174"/>
+      <c r="E10" s="173">
         <v>4.3899000000000001E-2</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="175">
+      <c r="F10" s="174"/>
+      <c r="G10" s="173">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="H10" s="176"/>
-      <c r="I10" s="175">
+      <c r="H10" s="174"/>
+      <c r="I10" s="173">
         <v>4.3154999999999999E-2</v>
       </c>
-      <c r="J10" s="176"/>
-      <c r="K10" s="175">
+      <c r="J10" s="174"/>
+      <c r="K10" s="173">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="L10" s="176"/>
+      <c r="L10" s="174"/>
     </row>
     <row r="13" spans="1:12">
       <c r="E13" t="s">
@@ -29558,8 +29639,8 @@
       <c r="L15" s="147"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
       <c r="I16" s="121"/>
       <c r="J16" s="23"/>
       <c r="K16" s="121"/>
@@ -29572,8 +29653,8 @@
       <c r="L17" s="165"/>
     </row>
     <row r="18" spans="4:12" ht="15" thickBot="1">
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
       <c r="I18" s="100"/>
       <c r="J18" s="101"/>
       <c r="K18" s="100"/>
@@ -29604,27 +29685,28 @@
       <c r="L22" s="138"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="174"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
     </row>
     <row r="24" spans="4:12" ht="15" thickBot="1">
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K9:L9"/>
@@ -29641,27 +29723,26 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B401CF-5DC1-4130-AADD-E813039FE74B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F10"/>
+      <selection activeCell="G1" sqref="G1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29700,7 +29781,7 @@
       <c r="C3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="182"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="164" t="s">
         <v>53</v>
       </c>
@@ -29708,11 +29789,11 @@
       <c r="G3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="182"/>
+      <c r="H3" s="181"/>
       <c r="I3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="182"/>
+      <c r="J3" s="181"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -29829,44 +29910,44 @@
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="180">
+      <c r="C9" s="186">
         <v>0.99433400000000005</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="179">
+      <c r="D9" s="186"/>
+      <c r="E9" s="185">
         <v>0.97592100000000004</v>
       </c>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180">
+      <c r="F9" s="186"/>
+      <c r="G9" s="186">
         <v>0.98016999999999999</v>
       </c>
-      <c r="H9" s="181"/>
-      <c r="I9" s="180">
+      <c r="H9" s="187"/>
+      <c r="I9" s="186">
         <v>0.97167099999999995</v>
       </c>
-      <c r="J9" s="181"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="184">
+      <c r="C10" s="183">
         <v>6.9195999999999994E-2</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="183">
+      <c r="D10" s="183"/>
+      <c r="E10" s="182">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184">
+      <c r="F10" s="183"/>
+      <c r="G10" s="183">
         <v>3.4225999999999999E-2</v>
       </c>
-      <c r="H10" s="185"/>
-      <c r="I10" s="184">
+      <c r="H10" s="184"/>
+      <c r="I10" s="183">
         <v>3.125E-2</v>
       </c>
-      <c r="J10" s="185"/>
+      <c r="J10" s="184"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="129"/>
@@ -29893,22 +29974,22 @@
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="186">
+      <c r="C13" s="179">
         <v>4.7316999999999998E-2</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="186">
+      <c r="D13" s="180"/>
+      <c r="E13" s="179">
         <v>3.1706999999999999E-2</v>
       </c>
-      <c r="F13" s="187"/>
-      <c r="G13" s="186">
+      <c r="F13" s="180"/>
+      <c r="G13" s="179">
         <v>2.9267999999999999E-2</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="186">
+      <c r="H13" s="180"/>
+      <c r="I13" s="179">
         <v>3.0244E-2</v>
       </c>
-      <c r="J13" s="187"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="132" t="s">
@@ -29917,16 +29998,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="I1:J1"/>
@@ -29938,13 +30009,391 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80816A2A-966C-4B1E-8A99-0D9C1FCC0DCE}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="D2" s="193">
+        <v>0</v>
+      </c>
+      <c r="E2" s="194"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="196">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="197"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="196">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="197"/>
+      <c r="N2" s="195"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="C3" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="147"/>
+      <c r="G3" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="197"/>
+      <c r="I3" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="197"/>
+      <c r="K3" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="197"/>
+      <c r="M3" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="197"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="C4" s="166" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="181"/>
+      <c r="E4" s="166" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="181"/>
+      <c r="G4" s="199" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="200"/>
+      <c r="I4" s="199" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="200"/>
+      <c r="K4" s="199" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="200"/>
+      <c r="M4" s="199" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="200"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="202" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="202" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="202" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="202" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="168" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="133">
+        <v>0.96875</v>
+      </c>
+      <c r="D6" s="134">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" s="133">
+        <v>0.96503000000000005</v>
+      </c>
+      <c r="F6" s="134">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="G6" s="203">
+        <v>0.96875</v>
+      </c>
+      <c r="H6" s="204">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I6" s="203">
+        <v>0.97023800000000004</v>
+      </c>
+      <c r="J6" s="204">
+        <v>2.9762E-2</v>
+      </c>
+      <c r="K6" s="203">
+        <v>0.90625</v>
+      </c>
+      <c r="L6" s="204">
+        <v>9.375E-2</v>
+      </c>
+      <c r="M6" s="203">
+        <v>0.88839299999999999</v>
+      </c>
+      <c r="N6" s="204">
+        <v>0.111607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="A7" s="169"/>
+      <c r="B7" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="133">
+        <v>3.3994000000000003E-2</v>
+      </c>
+      <c r="D7" s="134">
+        <v>0.96600600000000003</v>
+      </c>
+      <c r="E7" s="135">
+        <v>2.2662999999999999E-2</v>
+      </c>
+      <c r="F7" s="136">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="G7" s="203">
+        <v>4.1076000000000001E-2</v>
+      </c>
+      <c r="H7" s="204">
+        <v>0.958924</v>
+      </c>
+      <c r="I7" s="205">
+        <v>4.2493000000000003E-2</v>
+      </c>
+      <c r="J7" s="206">
+        <v>0.957507</v>
+      </c>
+      <c r="K7" s="203">
+        <v>4.9575000000000001E-2</v>
+      </c>
+      <c r="L7" s="204">
+        <v>0.95042499999999996</v>
+      </c>
+      <c r="M7" s="205">
+        <v>9.9150000000000002E-3</v>
+      </c>
+      <c r="N7" s="206">
+        <v>0.99007999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="208"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="208"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="178"/>
+      <c r="C10" s="191">
+        <v>0.96600600000000003</v>
+      </c>
+      <c r="D10" s="172"/>
+      <c r="E10" s="191">
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="F10" s="172"/>
+      <c r="G10" s="209">
+        <v>0.958924</v>
+      </c>
+      <c r="H10" s="210"/>
+      <c r="I10" s="209">
+        <v>0.957507</v>
+      </c>
+      <c r="J10" s="210"/>
+      <c r="K10" s="209">
+        <v>0.95042499999999996</v>
+      </c>
+      <c r="L10" s="210"/>
+      <c r="M10" s="209">
+        <v>0.99008499999999999</v>
+      </c>
+      <c r="N10" s="210"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1">
+      <c r="A11" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="178"/>
+      <c r="C11" s="192">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D11" s="174"/>
+      <c r="E11" s="192">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="F11" s="174"/>
+      <c r="G11" s="211">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H11" s="212"/>
+      <c r="I11" s="211">
+        <v>2.9762E-2</v>
+      </c>
+      <c r="J11" s="212"/>
+      <c r="K11" s="211">
+        <v>9.375E-2</v>
+      </c>
+      <c r="L11" s="212"/>
+      <c r="M11" s="211">
+        <v>0.111607</v>
+      </c>
+      <c r="N11" s="212"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA9A628-86B6-413E-A0B6-7CF767B83EBF}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -29983,7 +30432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9728650A-9351-487F-A67C-46E45D31A050}">
   <dimension ref="A2:F3"/>
   <sheetViews>
@@ -30015,7 +30464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D1BD3-6FA7-4787-B696-04D3642D0AA5}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -30454,7 +30903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3B66D-7BD8-4F2A-9287-C113CF501316}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -30955,7 +31404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA21E-70DE-47C0-9B79-6D95FAF31B83}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>

--- a/CancerSVM_dbscan.xlsx
+++ b/CancerSVM_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296D3084-36DD-4D9C-978F-2FC4687929D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF823C67-AB4A-420D-BE70-3D223B6D86AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="23" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="23" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,15 +30,15 @@
     <sheet name="outlier removal dbscan" sheetId="22" r:id="rId15"/>
     <sheet name="ace svm%20" sheetId="14" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
-    <sheet name="Sheet4" sheetId="29" r:id="rId18"/>
-    <sheet name="Sheet3" sheetId="23" r:id="rId19"/>
-    <sheet name="dbscanclust_l1pca" sheetId="24" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId21"/>
-    <sheet name="absoluteerror" sheetId="25" r:id="rId22"/>
-    <sheet name="comparison" sheetId="28" r:id="rId23"/>
+    <sheet name="Sheet4" sheetId="29" state="hidden" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="23" state="hidden" r:id="rId19"/>
+    <sheet name="dbscanclust_l1pca" sheetId="24" state="hidden" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="20" state="hidden" r:id="rId21"/>
+    <sheet name="absoluteerror" sheetId="25" state="hidden" r:id="rId22"/>
+    <sheet name="comparison" sheetId="28" state="hidden" r:id="rId23"/>
     <sheet name="svm rank 8" sheetId="30" r:id="rId24"/>
-    <sheet name="rmse" sheetId="26" r:id="rId25"/>
-    <sheet name="MAE" sheetId="27" r:id="rId26"/>
+    <sheet name="rmse" sheetId="26" state="hidden" r:id="rId25"/>
+    <sheet name="MAE" sheetId="27" state="hidden" r:id="rId26"/>
     <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId27"/>
     <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId28"/>
     <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId29"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="112">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -553,6 +553,171 @@
   <si>
     <t>knee error  + opt rank(1 to 5) using angle</t>
   </si>
+  <si>
+    <t>        x_train = sc.fit_transform(x_train)</t>
+  </si>
+  <si>
+    <t>        x_test=sc.fit_transform(x_test)</t>
+  </si>
+  <si>
+    <r>
+      <t>classifier =svm.SVC(kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rbf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn.preprocessing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> StandardScaler</t>
+    </r>
+  </si>
+  <si>
+    <t>        sc = StandardScaler()</t>
+  </si>
+  <si>
+    <t>Curated</t>
+  </si>
+  <si>
+    <t>(hidden between G&amp; L col the 0% result with same conditon)</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <r>
+      <t>classifier =svm.SVC(kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rbf"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, C=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +831,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF098156"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +992,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1192,11 +1414,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1498,6 +1824,81 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,11 +1941,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1552,17 +1953,17 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1995,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,16 +2019,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,14 +2040,137 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1651,72 +2178,11 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="118">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1744,366 +2210,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2169,31 +2275,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2329,16 +2415,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2349,11 +2425,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2439,6 +2515,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2464,6 +2560,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2549,36 +2695,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2594,26 +2710,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2699,16 +2795,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2719,11 +2805,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2809,6 +2895,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2834,6 +2930,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2919,16 +3025,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2939,11 +3035,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3029,6 +3125,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3049,6 +3155,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3059,11 +3235,111 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7437,7 +7713,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="136" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11285,45 +11561,40 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="61" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="60" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="59" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="58" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="57" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="56" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="55" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="54" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="53" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11351,16 +11622,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -12311,17 +12582,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="142" t="s">
+      <c r="M11" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="144"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="171"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -12430,16 +12701,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="150" t="s">
+      <c r="W13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="152"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="179"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -15237,23 +15508,16 @@
     <mergeCell ref="W13:AD13"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:U10">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="lessThan">
+    <cfRule type="top10" dxfId="42" priority="10" bottom="1" rank="1"/>
+    <cfRule type="expression" priority="11">
+      <formula>"min"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:U10">
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:U10">
-    <cfRule type="top10" dxfId="50" priority="10" bottom="1" rank="1"/>
-    <cfRule type="expression" priority="11">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="49" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16078,38 +16342,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H2">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="39" priority="13" bottom="1" rank="1"/>
+    <cfRule type="expression" priority="14">
+      <formula>"min"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="lessThan">
       <formula>$U2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
-      <formula>$U2</formula>
+  <conditionalFormatting sqref="M3:N3">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
+      <formula>$N3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2">
-    <cfRule type="top10" dxfId="46" priority="13" bottom="1" rank="1"/>
-    <cfRule type="expression" priority="14">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="top10" dxfId="42" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="17" bottom="1" rank="1"/>
     <cfRule type="expression" priority="18">
       <formula>"min"</formula>
     </cfRule>
@@ -16136,16 +16384,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19980,45 +20228,40 @@
   <mergeCells count="1">
     <mergeCell ref="M1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="38" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="37" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="36" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="35" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="33" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="32" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="31" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20042,16 +20285,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -23886,45 +24129,40 @@
   <mergeCells count="1">
     <mergeCell ref="M1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="28" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="27" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="26" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="25" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="24" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="23" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="22" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="21" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="20" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24346,22 +24584,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="top10" dxfId="16" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="4" bottom="1" rank="1"/>
     <cfRule type="expression" priority="5">
       <formula>"min"</formula>
     </cfRule>
@@ -24795,22 +25024,13 @@
     <sortCondition ref="D1:D57"/>
   </sortState>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="top10" dxfId="12" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="1"/>
     <cfRule type="expression" priority="5">
       <formula>"min"</formula>
     </cfRule>
@@ -24825,7 +25045,7 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -24846,26 +25066,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="160"/>
+      <c r="E2" s="185"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="160"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="156"/>
+      <c r="E3" s="183"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="155" t="s">
+      <c r="J3" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="156"/>
+      <c r="K3" s="183"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -24883,7 +25103,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="157" t="b">
+      <c r="B5" s="180" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -24895,10 +25115,10 @@
       <c r="E5" s="80">
         <v>4.8</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="157" t="b">
+      <c r="H5" s="180" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -24910,12 +25130,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="186" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="158"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24925,8 +25145,8 @@
       <c r="E6" s="80">
         <v>72.8</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="H6" s="158"/>
+      <c r="F6" s="187"/>
+      <c r="H6" s="181"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -24936,7 +25156,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="154"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -25156,14 +25376,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -25208,26 +25428,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="160"/>
+      <c r="E2" s="185"/>
       <c r="F2" s="76"/>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="160"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="156"/>
+      <c r="E3" s="183"/>
       <c r="F3" s="86"/>
-      <c r="J3" s="155" t="s">
+      <c r="J3" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="156"/>
+      <c r="K3" s="183"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="77" t="s">
@@ -25245,7 +25465,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="157" t="b">
+      <c r="B5" s="180" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="81" t="s">
@@ -25259,10 +25479,10 @@
         <f>D13</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="157" t="b">
+      <c r="H5" s="180" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="81" t="s">
@@ -25274,12 +25494,12 @@
       <c r="K5" s="80">
         <v>4.2</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="186" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="158"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25291,8 +25511,8 @@
         <f>D14</f>
         <v>72.3</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="H6" s="158"/>
+      <c r="F6" s="187"/>
+      <c r="H6" s="181"/>
       <c r="I6" s="82" t="s">
         <v>52</v>
       </c>
@@ -25302,7 +25522,7 @@
       <c r="K6" s="80">
         <v>70.400000000000006</v>
       </c>
-      <c r="L6" s="154"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="94" t="s">
@@ -29067,12 +29287,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="135" priority="2" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="1" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29094,30 +29309,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="G1" s="161" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
+      <c r="G1" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="162"/>
-      <c r="I1" s="163"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="192"/>
       <c r="E3" s="99"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="167"/>
+      <c r="I3" s="194"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -29137,7 +29352,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="168" t="b">
+      <c r="A5" s="195" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -29160,7 +29375,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="169"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29268,10 +29483,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="70" customFormat="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="170"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:6">
@@ -29385,26 +29600,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="171"/>
+      <c r="E1" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="142" t="s">
+      <c r="F1" s="171"/>
+      <c r="G1" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="144"/>
-      <c r="K1" s="142" t="s">
+      <c r="J1" s="171"/>
+      <c r="K1" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="144"/>
+      <c r="L1" s="171"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="C2" s="121"/>
@@ -29421,26 +29636,26 @@
     <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="164" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="164" t="s">
+      <c r="F3" s="192"/>
+      <c r="G3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="165"/>
-      <c r="I3" s="164" t="s">
+      <c r="H3" s="192"/>
+      <c r="I3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="165"/>
-      <c r="K3" s="164" t="s">
+      <c r="J3" s="192"/>
+      <c r="K3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="165"/>
+      <c r="L3" s="192"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -29477,7 +29692,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="168" t="b">
+      <c r="A5" s="195" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -29515,7 +29730,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="169"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29575,56 +29790,56 @@
       <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="171">
+      <c r="B9" s="199"/>
+      <c r="C9" s="200">
         <v>0.99291799999999997</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="171">
+      <c r="D9" s="201"/>
+      <c r="E9" s="200">
         <v>0.99716700000000003</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="171">
+      <c r="F9" s="201"/>
+      <c r="G9" s="200">
         <v>0.99433400000000005</v>
       </c>
-      <c r="H9" s="172"/>
-      <c r="I9" s="171">
+      <c r="H9" s="201"/>
+      <c r="I9" s="200">
         <v>0.98725200000000002</v>
       </c>
-      <c r="J9" s="172"/>
-      <c r="K9" s="171">
+      <c r="J9" s="201"/>
+      <c r="K9" s="200">
         <v>0.97733700000000001</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="201"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="173">
+      <c r="B10" s="199"/>
+      <c r="C10" s="202">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="173">
+      <c r="D10" s="203"/>
+      <c r="E10" s="202">
         <v>4.3899000000000001E-2</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="173">
+      <c r="F10" s="203"/>
+      <c r="G10" s="202">
         <v>4.2410999999999997E-2</v>
       </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="173">
+      <c r="H10" s="203"/>
+      <c r="I10" s="202">
         <v>4.3154999999999999E-2</v>
       </c>
-      <c r="J10" s="174"/>
-      <c r="K10" s="173">
+      <c r="J10" s="203"/>
+      <c r="K10" s="202">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="L10" s="174"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="13" spans="1:12">
       <c r="E13" t="s">
@@ -29633,28 +29848,28 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1"/>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="I15" s="145"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="147"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="174"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
       <c r="I16" s="121"/>
       <c r="J16" s="23"/>
       <c r="K16" s="121"/>
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="4:12" ht="15" thickBot="1">
-      <c r="I17" s="164"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="165"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="192"/>
     </row>
     <row r="18" spans="4:12" ht="15" thickBot="1">
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="205"/>
       <c r="I18" s="100"/>
       <c r="J18" s="101"/>
       <c r="K18" s="100"/>
@@ -29685,28 +29900,27 @@
       <c r="L22" s="138"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="201"/>
     </row>
     <row r="24" spans="4:12" ht="15" thickBot="1">
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="174"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K9:L9"/>
@@ -29723,14 +29937,15 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29742,28 +29957,28 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="145" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="145" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="147"/>
-      <c r="I1" s="145" t="s">
+      <c r="H1" s="174"/>
+      <c r="I1" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="147"/>
+      <c r="J1" s="174"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="C2" s="121"/>
@@ -29778,22 +29993,22 @@
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="164" t="s">
+      <c r="D3" s="209"/>
+      <c r="E3" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166" t="s">
+      <c r="F3" s="192"/>
+      <c r="G3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="166" t="s">
+      <c r="H3" s="209"/>
+      <c r="I3" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="181"/>
+      <c r="J3" s="209"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="74"/>
@@ -29824,7 +30039,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="168" t="b">
+      <c r="A5" s="195" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
@@ -29856,7 +30071,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="169"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="105" t="s">
         <v>52</v>
       </c>
@@ -29910,44 +30125,44 @@
         <v>86</v>
       </c>
       <c r="B9" s="109"/>
-      <c r="C9" s="186">
+      <c r="C9" s="207">
         <v>0.99433400000000005</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="185">
+      <c r="D9" s="207"/>
+      <c r="E9" s="206">
         <v>0.97592100000000004</v>
       </c>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186">
+      <c r="F9" s="207"/>
+      <c r="G9" s="207">
         <v>0.98016999999999999</v>
       </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="186">
+      <c r="H9" s="208"/>
+      <c r="I9" s="207">
         <v>0.97167099999999995</v>
       </c>
-      <c r="J9" s="187"/>
+      <c r="J9" s="208"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="183">
+      <c r="C10" s="211">
         <v>6.9195999999999994E-2</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="182">
+      <c r="D10" s="211"/>
+      <c r="E10" s="210">
         <v>3.5714000000000003E-2</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183">
+      <c r="F10" s="211"/>
+      <c r="G10" s="211">
         <v>3.4225999999999999E-2</v>
       </c>
-      <c r="H10" s="184"/>
-      <c r="I10" s="183">
+      <c r="H10" s="212"/>
+      <c r="I10" s="211">
         <v>3.125E-2</v>
       </c>
-      <c r="J10" s="184"/>
+      <c r="J10" s="212"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="129"/>
@@ -29974,22 +30189,22 @@
         <v>88</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="179">
+      <c r="C13" s="213">
         <v>4.7316999999999998E-2</v>
       </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="179">
+      <c r="D13" s="214"/>
+      <c r="E13" s="213">
         <v>3.1706999999999999E-2</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="179">
+      <c r="F13" s="214"/>
+      <c r="G13" s="213">
         <v>2.9267999999999999E-2</v>
       </c>
-      <c r="H13" s="180"/>
-      <c r="I13" s="179">
+      <c r="H13" s="214"/>
+      <c r="I13" s="213">
         <v>3.0244E-2</v>
       </c>
-      <c r="J13" s="180"/>
+      <c r="J13" s="214"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="132" t="s">
@@ -29998,6 +30213,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="I1:J1"/>
@@ -30009,16 +30234,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30027,366 +30242,559 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80816A2A-966C-4B1E-8A99-0D9C1FCC0DCE}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="D2" s="193">
+    <row r="1" spans="2:23" ht="15" thickBot="1">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+    </row>
+    <row r="2" spans="2:23" ht="15" thickBot="1">
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="215">
         <v>0</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196">
+      <c r="F2" s="216"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="223">
+        <v>0</v>
+      </c>
+      <c r="J2" s="253"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="223">
+        <v>0.05</v>
+      </c>
+      <c r="N2" s="224"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="223">
         <v>0.1</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="196">
+      <c r="R2" s="224"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="223">
         <v>0.2</v>
       </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="195"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="C3" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="145" t="s">
+      <c r="V2" s="224"/>
+      <c r="W2" s="144"/>
+    </row>
+    <row r="3" spans="2:23" ht="15" thickBot="1">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="197"/>
-      <c r="I3" s="198" t="s">
+      <c r="E3" s="218"/>
+      <c r="F3" s="217" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="219"/>
+      <c r="H3" s="254" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="197"/>
-      <c r="K3" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="197"/>
-      <c r="M3" s="198" t="s">
+      <c r="I3" s="255"/>
+      <c r="J3" s="255" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="256"/>
+      <c r="L3" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="197"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="C4" s="166" t="s">
+      <c r="M3" s="226"/>
+      <c r="N3" s="226" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="227"/>
+      <c r="P3" s="240" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="242"/>
+      <c r="T3" s="235" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="237"/>
+    </row>
+    <row r="4" spans="2:23" ht="15" thickBot="1">
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="221"/>
+      <c r="F4" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="199" t="s">
+      <c r="G4" s="222"/>
+      <c r="H4" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="199" t="s">
+      <c r="I4" s="229"/>
+      <c r="J4" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="200"/>
-      <c r="K4" s="199" t="s">
+      <c r="K4" s="230"/>
+      <c r="L4" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="200"/>
-      <c r="M4" s="199" t="s">
+      <c r="M4" s="229"/>
+      <c r="N4" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="200"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="100" t="s">
+      <c r="O4" s="230"/>
+      <c r="P4" s="228" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="229" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="230"/>
+      <c r="T4" s="228" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="229"/>
+      <c r="V4" s="229" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="230"/>
+    </row>
+    <row r="5" spans="2:23" ht="15" thickBot="1">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="E5" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="F5" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="G5" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="H5" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="I5" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="J5" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="202" t="s">
+      <c r="K5" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="201" t="s">
+      <c r="L5" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="202" t="s">
+      <c r="M5" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="201" t="s">
+      <c r="N5" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="202" t="s">
+      <c r="O5" s="147" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="168" t="b">
+      <c r="P5" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15" thickBot="1">
+      <c r="B6" s="247" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="C6" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="133">
-        <v>0.96875</v>
-      </c>
-      <c r="D6" s="134">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E6" s="133">
-        <v>0.96503000000000005</v>
-      </c>
-      <c r="F6" s="134">
-        <v>3.4970000000000001E-2</v>
-      </c>
-      <c r="G6" s="203">
-        <v>0.96875</v>
-      </c>
-      <c r="H6" s="204">
-        <v>3.125E-2</v>
-      </c>
-      <c r="I6" s="203">
-        <v>0.97023800000000004</v>
-      </c>
-      <c r="J6" s="204">
-        <v>2.9762E-2</v>
-      </c>
-      <c r="K6" s="203">
-        <v>0.90625</v>
-      </c>
-      <c r="L6" s="204">
-        <v>9.375E-2</v>
-      </c>
-      <c r="M6" s="203">
-        <v>0.88839299999999999</v>
-      </c>
-      <c r="N6" s="204">
-        <v>0.111607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="105" t="s">
+      <c r="D6" s="149">
+        <v>0.96279800000000004</v>
+      </c>
+      <c r="E6" s="150">
+        <v>3.7201999999999999E-2</v>
+      </c>
+      <c r="F6" s="149">
+        <v>0.95684499999999995</v>
+      </c>
+      <c r="G6" s="159">
+        <v>4.3154999999999999E-2</v>
+      </c>
+      <c r="H6" s="163">
+        <v>0.96354200000000001</v>
+      </c>
+      <c r="I6" s="161">
+        <v>3.6457999999999997E-2</v>
+      </c>
+      <c r="J6" s="161">
+        <v>0.95535700000000001</v>
+      </c>
+      <c r="K6" s="164">
+        <v>4.4643000000000002E-2</v>
+      </c>
+      <c r="L6" s="163">
+        <v>0.96949399999999997</v>
+      </c>
+      <c r="M6" s="161">
+        <v>3.0505999999999998E-2</v>
+      </c>
+      <c r="N6" s="161">
+        <v>0.96577400000000002</v>
+      </c>
+      <c r="O6" s="164">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="P6" s="163">
+        <v>0.97321400000000002</v>
+      </c>
+      <c r="Q6" s="161">
+        <v>2.6786000000000001E-2</v>
+      </c>
+      <c r="R6" s="161">
+        <v>0.96577400000000002</v>
+      </c>
+      <c r="S6" s="164">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="T6" s="163">
+        <v>0.97098200000000001</v>
+      </c>
+      <c r="U6" s="161">
+        <v>2.9017999999999999E-2</v>
+      </c>
+      <c r="V6" s="161">
+        <v>0.96800600000000003</v>
+      </c>
+      <c r="W6" s="164">
+        <v>3.1994000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="15" thickBot="1">
+      <c r="B7" s="248"/>
+      <c r="C7" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="133">
-        <v>3.3994000000000003E-2</v>
-      </c>
-      <c r="D7" s="134">
-        <v>0.96600600000000003</v>
-      </c>
-      <c r="E7" s="135">
+      <c r="D7" s="149">
         <v>2.2662999999999999E-2</v>
       </c>
-      <c r="F7" s="136">
+      <c r="E7" s="150">
         <v>0.97733700000000001</v>
       </c>
-      <c r="G7" s="203">
-        <v>4.1076000000000001E-2</v>
-      </c>
-      <c r="H7" s="204">
-        <v>0.958924</v>
-      </c>
-      <c r="I7" s="205">
-        <v>4.2493000000000003E-2</v>
-      </c>
-      <c r="J7" s="206">
-        <v>0.957507</v>
-      </c>
-      <c r="K7" s="203">
-        <v>4.9575000000000001E-2</v>
-      </c>
-      <c r="L7" s="204">
-        <v>0.95042499999999996</v>
-      </c>
-      <c r="M7" s="205">
-        <v>9.9150000000000002E-3</v>
-      </c>
-      <c r="N7" s="206">
-        <v>0.99007999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="208"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
-      <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="208"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="177" t="s">
+      <c r="F7" s="152">
+        <v>1.2748000000000001E-2</v>
+      </c>
+      <c r="G7" s="160">
+        <v>0.98725200000000002</v>
+      </c>
+      <c r="H7" s="152">
+        <v>3.8244E-2</v>
+      </c>
+      <c r="I7" s="165">
+        <v>0.96175600000000006</v>
+      </c>
+      <c r="J7" s="165">
+        <v>1.5580999999999999E-2</v>
+      </c>
+      <c r="K7" s="153">
+        <v>0.98441900000000004</v>
+      </c>
+      <c r="L7" s="152">
+        <v>5.9490000000000001E-2</v>
+      </c>
+      <c r="M7" s="165">
+        <v>0.94050999999999996</v>
+      </c>
+      <c r="N7" s="165">
+        <v>3.2578000000000003E-2</v>
+      </c>
+      <c r="O7" s="153">
+        <v>0.967422</v>
+      </c>
+      <c r="P7" s="152">
+        <v>0.100567</v>
+      </c>
+      <c r="Q7" s="165">
+        <v>0.89943300000000004</v>
+      </c>
+      <c r="R7" s="165">
+        <v>6.9404999999999994E-2</v>
+      </c>
+      <c r="S7" s="153">
+        <v>0.93059499999999995</v>
+      </c>
+      <c r="T7" s="152">
+        <v>0.18413599999999999</v>
+      </c>
+      <c r="U7" s="165">
+        <v>0.81586400000000003</v>
+      </c>
+      <c r="V7" s="165">
+        <v>9.0651999999999996E-2</v>
+      </c>
+      <c r="W7" s="153">
+        <v>0.90934800000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="155"/>
+    </row>
+    <row r="9" spans="2:23" ht="15" thickBot="1">
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="155"/>
+    </row>
+    <row r="10" spans="2:23" ht="15" thickBot="1">
+      <c r="B10" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="191">
-        <v>0.96600600000000003</v>
-      </c>
-      <c r="D10" s="172"/>
-      <c r="E10" s="191">
-        <v>0.97733700000000001</v>
-      </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="209">
-        <v>0.958924</v>
-      </c>
-      <c r="H10" s="210"/>
-      <c r="I10" s="209">
-        <v>0.957507</v>
-      </c>
-      <c r="J10" s="210"/>
-      <c r="K10" s="209">
-        <v>0.95042499999999996</v>
-      </c>
-      <c r="L10" s="210"/>
-      <c r="M10" s="209">
-        <v>0.99008499999999999</v>
-      </c>
-      <c r="N10" s="210"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
-      <c r="A11" s="177" t="s">
+      <c r="C10" s="250"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="244"/>
+      <c r="N10" s="243"/>
+      <c r="O10" s="244"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="239"/>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1">
+      <c r="B11" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="192">
-        <v>3.125E-2</v>
-      </c>
-      <c r="D11" s="174"/>
-      <c r="E11" s="192">
-        <v>3.4970000000000001E-2</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="211">
-        <v>3.125E-2</v>
-      </c>
-      <c r="H11" s="212"/>
-      <c r="I11" s="211">
-        <v>2.9762E-2</v>
-      </c>
-      <c r="J11" s="212"/>
-      <c r="K11" s="211">
-        <v>9.375E-2</v>
-      </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="211">
-        <v>0.111607</v>
-      </c>
-      <c r="N11" s="212"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="D14" s="190"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="232"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="232"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="139"/>
+      <c r="H14" s="140"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="156" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="157" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="141"/>
+      <c r="H17" s="140"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="142"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="143">
+        <v>45146</v>
+      </c>
+      <c r="F21" s="143">
+        <v>45263</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="44">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30878,22 +31286,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="top10" dxfId="8" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="1"/>
     <cfRule type="expression" priority="5">
       <formula>"min"</formula>
     </cfRule>
@@ -31162,10 +31561,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="188" t="s">
+      <c r="M15" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="189"/>
+      <c r="N15" s="258"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -31226,10 +31625,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="188" t="s">
+      <c r="M19" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="189"/>
+      <c r="N19" s="258"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -31380,22 +31779,13 @@
     <mergeCell ref="M19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
-      <formula>$T3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>$T3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>$N3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>$T3</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
     <cfRule type="expression" priority="5">
       <formula>"min"</formula>
     </cfRule>
@@ -31641,10 +32031,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="188" t="s">
+      <c r="M13" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="189"/>
+      <c r="N13" s="258"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -31943,21 +32333,12 @@
     <mergeCell ref="M13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$T3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>$T3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N3">
     <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="1"/>
     <cfRule type="expression" priority="5">
       <formula>"min"</formula>
@@ -32919,17 +33300,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="142" t="s">
+      <c r="M10" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="144"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="171"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -33006,23 +33387,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="139" t="s">
+      <c r="M12" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="141"/>
-      <c r="W12" s="145" t="s">
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="168"/>
+      <c r="W12" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="147"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="174"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -35880,45 +36261,40 @@
     <mergeCell ref="M10:U10"/>
     <mergeCell ref="W12:AD12"/>
   </mergeCells>
-  <conditionalFormatting sqref="M2:T9">
-    <cfRule type="cellIs" dxfId="133" priority="13" operator="lessThan">
-      <formula>$U2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:T9">
-    <cfRule type="cellIs" dxfId="132" priority="12" operator="lessThan">
-      <formula>$U2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M2:T2">
-    <cfRule type="top10" dxfId="131" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="115" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:T9">
+    <cfRule type="cellIs" dxfId="114" priority="12" operator="lessThan">
+      <formula>$U2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T9">
-    <cfRule type="top10" dxfId="130" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:T4">
-    <cfRule type="top10" dxfId="129" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="128" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="127" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="126" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="109" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="125" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="124" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:AD11">
-    <cfRule type="top10" dxfId="123" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39773,45 +40149,40 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:T9">
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="lessThan">
-      <formula>$U2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:T9">
-    <cfRule type="cellIs" dxfId="121" priority="12" operator="lessThan">
-      <formula>$U2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M2:T2">
-    <cfRule type="top10" dxfId="120" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="105" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:T9">
+    <cfRule type="cellIs" dxfId="104" priority="12" operator="lessThan">
+      <formula>$U2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T9">
-    <cfRule type="top10" dxfId="119" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="103" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:T4">
-    <cfRule type="top10" dxfId="118" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="117" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="101" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="116" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="100" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="115" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="114" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="98" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="113" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:AD11">
-    <cfRule type="top10" dxfId="112" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="96" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39835,16 +40206,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -43679,45 +44050,40 @@
   <mergeCells count="1">
     <mergeCell ref="M1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="111" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="110" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="109" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="94" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="108" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="107" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="106" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="105" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="104" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="103" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="102" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="101" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43741,16 +44107,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -47571,45 +47937,40 @@
   <mergeCells count="1">
     <mergeCell ref="M1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="100" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="99" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="98" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="97" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="96" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="95" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="94" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="93" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="92" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="91" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="90" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47635,16 +47996,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -48595,17 +48956,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="142" t="s">
+      <c r="M11" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="144"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="171"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -48714,16 +49075,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="150" t="s">
+      <c r="W13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="152"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="179"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -48759,13 +49120,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="139" t="s">
+      <c r="M14" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="168"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">
@@ -51588,23 +51949,16 @@
     <mergeCell ref="W13:AD13"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:U10">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="lessThan">
+    <cfRule type="top10" dxfId="75" priority="10" bottom="1" rank="1"/>
+    <cfRule type="expression" priority="11">
+      <formula>"min"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="lessThan">
       <formula>$U3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:U10">
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:U10">
-    <cfRule type="top10" dxfId="87" priority="10" bottom="1" rank="1"/>
-    <cfRule type="expression" priority="11">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="86" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55446,45 +55800,40 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="85" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="83" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="82" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="81" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="80" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="79" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="78" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="77" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="76" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="75" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59335,45 +59684,40 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="74" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="72" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="10" bottom="1" rank="1"/>
     <cfRule type="expression" priority="11">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="61" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="71" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="70" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="69" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="68" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="67" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="66" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="65" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="64" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="1" rank="1"/>
     <cfRule type="top10" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
